--- a/TimeHistoryResponseAnalysis/# TestModel/output/result - TestWave1 - DegradingCloughModel - RFCTester.xlsx
+++ b/TimeHistoryResponseAnalysis/# TestModel/output/result - TestWave1 - DegradingCloughModel - RFCTester.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aki32\Dropbox\Codes\# Projects\# Utilities\Structural Engineering\TimeHistoryResponseAnalysis\# TestModel\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{934BF08C-ADDA-4A82-9943-363C48870FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4F0B16A-771E-4ECB-B6A6-54A4FBDACF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1470" yWindow="-120" windowWidth="27450" windowHeight="16440"/>
   </bookViews>
@@ -618,11 +618,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3505,241 +3502,241 @@
                   <c:v>-92.000000000000099</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>-87.000000000000099</c:v>
+                  <c:v>-88.534275784224405</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>-82.000000000000099</c:v>
+                  <c:v>-85.068551568448697</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>-77.000000000000099</c:v>
+                  <c:v>-81.602827352672904</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>-72.000000000000099</c:v>
+                  <c:v>-78.137103136897196</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>-67.000000000000099</c:v>
+                  <c:v>-74.671378921121402</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>-62.000000000000099</c:v>
+                  <c:v>-71.205654705345694</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>-57.000000000000099</c:v>
+                  <c:v>-67.73993048957</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>-52.000000000000099</c:v>
+                  <c:v>-64.274206273794206</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>-47.000000000000099</c:v>
+                  <c:v>-60.808482058018498</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>-42.000000000000099</c:v>
+                  <c:v>-57.342757842242797</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>-37.000000000000099</c:v>
+                  <c:v>-53.877033626466996</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>-32.000000000000099</c:v>
+                  <c:v>-50.411309410691302</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>-27.000000000000099</c:v>
+                  <c:v>-46.945585194915601</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>-22.000000000000099</c:v>
+                  <c:v>-43.4798609791399</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>-17.000000000000099</c:v>
+                  <c:v>-40.0141367633641</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>-12.000000000000099</c:v>
+                  <c:v>-36.548412547588399</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>-7.0000000000001696</c:v>
+                  <c:v>-33.082688331812697</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>-2.0000000000001701</c:v>
+                  <c:v>-29.6169641160369</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>0.896103896103845</c:v>
+                  <c:v>-26.151239900261199</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>2.3896103896103398</c:v>
+                  <c:v>-22.685515684485502</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>3.8831168831168301</c:v>
+                  <c:v>-19.219791468709701</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>5.3766233766233196</c:v>
+                  <c:v>-15.754067252934</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>6.8701298701298201</c:v>
+                  <c:v>-12.288343037158301</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>8.36363636363631</c:v>
+                  <c:v>-8.82261882138258</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>9.8571428571428097</c:v>
+                  <c:v>-5.3568946056068496</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>11.3506493506493</c:v>
+                  <c:v>-1.8911703898311201</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>12.8441558441558</c:v>
+                  <c:v>1.0667769672166301</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>14.3376623376622</c:v>
+                  <c:v>2.7824981565144302</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>15.8311688311687</c:v>
+                  <c:v>4.4982193458122302</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>17.324675324675201</c:v>
+                  <c:v>6.2139405351100301</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>18.818181818181699</c:v>
+                  <c:v>7.92966172440783</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>20.311688311688201</c:v>
+                  <c:v>9.6453829137056299</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>21.805194805194699</c:v>
+                  <c:v>11.361104103003401</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>23.2987012987012</c:v>
+                  <c:v>13.0768252923012</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>24.792207792207702</c:v>
+                  <c:v>14.792546481599</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>26.285714285714199</c:v>
+                  <c:v>16.508267670896799</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>27.779220779220701</c:v>
+                  <c:v>18.223988860194599</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>29.272727272727199</c:v>
+                  <c:v>19.939710049492401</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>30.7662337662337</c:v>
+                  <c:v>21.6554312387902</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>32.259740259740198</c:v>
+                  <c:v>23.371152428087999</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>33.7532467532467</c:v>
+                  <c:v>25.086873617385798</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>35.246753246753201</c:v>
+                  <c:v>26.802594806683601</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>36.740259740259702</c:v>
+                  <c:v>28.5183159959814</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>38.233766233766197</c:v>
+                  <c:v>30.234037185279199</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>39.727272727272698</c:v>
+                  <c:v>31.949758374577002</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>41.2207792207791</c:v>
+                  <c:v>33.665479563874797</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>42.714285714285602</c:v>
+                  <c:v>35.3812007531726</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>44.207792207792103</c:v>
+                  <c:v>37.096921942470402</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>45.701298701298597</c:v>
+                  <c:v>38.812643131768198</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>47.194805194805099</c:v>
+                  <c:v>40.528364321066</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>48.6883116883116</c:v>
+                  <c:v>42.244085510363803</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>50.181818181818102</c:v>
+                  <c:v>43.959806699661598</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>51.675324675324603</c:v>
+                  <c:v>45.675527888959401</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>53.168831168831098</c:v>
+                  <c:v>47.391249078257196</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>54.662337662337599</c:v>
+                  <c:v>49.106970267554999</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>56.1558441558441</c:v>
+                  <c:v>50.822691456852802</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>57.649350649350602</c:v>
+                  <c:v>52.538412646150597</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>59.142857142857103</c:v>
+                  <c:v>54.2541338354484</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>60.636363636363598</c:v>
+                  <c:v>55.969855024746202</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>62.129870129870099</c:v>
+                  <c:v>57.685576214043998</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>63.6233766233766</c:v>
+                  <c:v>59.4012974033418</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>65.116883116883102</c:v>
+                  <c:v>61.117018592639603</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>66.610389610389603</c:v>
+                  <c:v>62.832739781937399</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>68.103896103896005</c:v>
+                  <c:v>64.548460971235201</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>69.597402597402507</c:v>
+                  <c:v>66.264182160532997</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>71.090909090908994</c:v>
+                  <c:v>67.979903349830806</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>72.584415584415495</c:v>
+                  <c:v>69.695624539128602</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>74.077922077921997</c:v>
+                  <c:v>71.411345728426397</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>75.571428571428498</c:v>
+                  <c:v>73.127066917724093</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>77.064935064935</c:v>
+                  <c:v>74.842788107021903</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>78.558441558441501</c:v>
+                  <c:v>76.558509296319698</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>80.051948051948003</c:v>
+                  <c:v>78.274230485617494</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>81.545454545454504</c:v>
+                  <c:v>79.989951674915304</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>83.038961038961006</c:v>
+                  <c:v>81.705672864213099</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>84.532467532467507</c:v>
+                  <c:v>83.421394053510994</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>86.025974025973994</c:v>
+                  <c:v>85.137115242808704</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>87.519480519480496</c:v>
+                  <c:v>86.8528364321065</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>89.012987012986997</c:v>
+                  <c:v>88.568557621404395</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>90.506493506493499</c:v>
+                  <c:v>90.284278810702205</c:v>
                 </c:pt>
                 <c:pt idx="282">
                   <c:v>92</c:v>
@@ -4111,772 +4108,772 @@
                   <c:v>-92.000000000000099</c:v>
                 </c:pt>
                 <c:pt idx="405">
-                  <c:v>-88.000000000000099</c:v>
+                  <c:v>-89.227420627379502</c:v>
                 </c:pt>
                 <c:pt idx="406">
-                  <c:v>-84.000000000000099</c:v>
+                  <c:v>-86.454841254759003</c:v>
                 </c:pt>
                 <c:pt idx="407">
-                  <c:v>-80.000000000000099</c:v>
+                  <c:v>-83.682261882138405</c:v>
                 </c:pt>
                 <c:pt idx="408">
-                  <c:v>-76.000000000000099</c:v>
+                  <c:v>-80.909682509517793</c:v>
                 </c:pt>
                 <c:pt idx="409">
-                  <c:v>-72.000000000000099</c:v>
+                  <c:v>-78.137103136897196</c:v>
                 </c:pt>
                 <c:pt idx="410">
-                  <c:v>-68.000000000000099</c:v>
+                  <c:v>-75.364523764276598</c:v>
                 </c:pt>
                 <c:pt idx="411">
-                  <c:v>-64.000000000000099</c:v>
+                  <c:v>-72.591944391656</c:v>
                 </c:pt>
                 <c:pt idx="412">
-                  <c:v>-60.000000000000099</c:v>
+                  <c:v>-69.819365019035502</c:v>
                 </c:pt>
                 <c:pt idx="413">
-                  <c:v>-56.000000000000099</c:v>
+                  <c:v>-67.046785646414904</c:v>
                 </c:pt>
                 <c:pt idx="414">
-                  <c:v>-52.000000000000099</c:v>
+                  <c:v>-64.274206273794306</c:v>
                 </c:pt>
                 <c:pt idx="415">
-                  <c:v>-48.000000000000099</c:v>
+                  <c:v>-61.501626901173701</c:v>
                 </c:pt>
                 <c:pt idx="416">
-                  <c:v>-44.000000000000099</c:v>
+                  <c:v>-58.729047528553103</c:v>
                 </c:pt>
                 <c:pt idx="417">
-                  <c:v>-40.000000000000099</c:v>
+                  <c:v>-55.956468155932498</c:v>
                 </c:pt>
                 <c:pt idx="418">
-                  <c:v>-36.000000000000099</c:v>
+                  <c:v>-53.183888783312</c:v>
                 </c:pt>
                 <c:pt idx="419">
-                  <c:v>-32.000000000000099</c:v>
+                  <c:v>-50.411309410691402</c:v>
                 </c:pt>
                 <c:pt idx="420">
-                  <c:v>-28.000000000000099</c:v>
+                  <c:v>-47.638730038070797</c:v>
                 </c:pt>
                 <c:pt idx="421">
-                  <c:v>-24.000000000000099</c:v>
+                  <c:v>-44.866150665450199</c:v>
                 </c:pt>
                 <c:pt idx="422">
-                  <c:v>-20.000000000000099</c:v>
+                  <c:v>-42.093571292829601</c:v>
                 </c:pt>
                 <c:pt idx="423">
-                  <c:v>-16.000000000000099</c:v>
+                  <c:v>-39.320991920209003</c:v>
                 </c:pt>
                 <c:pt idx="424">
-                  <c:v>-12.000000000000099</c:v>
+                  <c:v>-36.548412547588498</c:v>
                 </c:pt>
                 <c:pt idx="425">
-                  <c:v>-8.0000000000001705</c:v>
+                  <c:v>-33.7758331749679</c:v>
                 </c:pt>
                 <c:pt idx="426">
-                  <c:v>-4.0000000000001696</c:v>
-                </c:pt>
-                <c:pt idx="427" formatCode="0.00E+00">
-                  <c:v>-1.7053025658242399E-13</c:v>
+                  <c:v>-31.003253802347299</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>-28.230674429726701</c:v>
                 </c:pt>
                 <c:pt idx="428">
-                  <c:v>0.99999999999995703</c:v>
+                  <c:v>-25.4580950571061</c:v>
                 </c:pt>
                 <c:pt idx="429">
-                  <c:v>1.99999999999995</c:v>
+                  <c:v>-22.685515684485502</c:v>
                 </c:pt>
                 <c:pt idx="430">
-                  <c:v>2.9999999999999498</c:v>
+                  <c:v>-19.9129363118649</c:v>
                 </c:pt>
                 <c:pt idx="431">
-                  <c:v>3.9999999999999498</c:v>
+                  <c:v>-17.140356939244398</c:v>
                 </c:pt>
                 <c:pt idx="432">
-                  <c:v>4.9999999999999503</c:v>
+                  <c:v>-14.367777566623801</c:v>
                 </c:pt>
                 <c:pt idx="433">
-                  <c:v>5.9999999999999503</c:v>
+                  <c:v>-11.595198194003199</c:v>
                 </c:pt>
                 <c:pt idx="434">
-                  <c:v>6.9999999999999503</c:v>
+                  <c:v>-8.8226188213826493</c:v>
                 </c:pt>
                 <c:pt idx="435">
-                  <c:v>7.9999999999999503</c:v>
+                  <c:v>-6.0500394487620701</c:v>
                 </c:pt>
                 <c:pt idx="436">
-                  <c:v>8.9999999999999591</c:v>
+                  <c:v>-3.2774600761414798</c:v>
                 </c:pt>
                 <c:pt idx="437">
-                  <c:v>9.9999999999999591</c:v>
+                  <c:v>-0.50488070352089998</c:v>
                 </c:pt>
                 <c:pt idx="438">
-                  <c:v>10.999999999999901</c:v>
+                  <c:v>0.97008681074008496</c:v>
                 </c:pt>
                 <c:pt idx="439">
-                  <c:v>11.999999999999901</c:v>
+                  <c:v>2.0803056369956798</c:v>
                 </c:pt>
                 <c:pt idx="440">
-                  <c:v>12.999999999999901</c:v>
+                  <c:v>3.1905244632512901</c:v>
                 </c:pt>
                 <c:pt idx="441">
-                  <c:v>13.999999999999901</c:v>
+                  <c:v>4.3007432895068902</c:v>
                 </c:pt>
                 <c:pt idx="442">
-                  <c:v>14.999999999999901</c:v>
+                  <c:v>5.4109621157624899</c:v>
                 </c:pt>
                 <c:pt idx="443">
-                  <c:v>15.999999999999901</c:v>
+                  <c:v>6.5211809420181002</c:v>
                 </c:pt>
                 <c:pt idx="444">
-                  <c:v>16.999999999999901</c:v>
+                  <c:v>7.6313997682736998</c:v>
                 </c:pt>
                 <c:pt idx="445">
-                  <c:v>17.999999999999901</c:v>
+                  <c:v>8.7416185945292995</c:v>
                 </c:pt>
                 <c:pt idx="446">
-                  <c:v>18.999999999999901</c:v>
+                  <c:v>9.8518374207849106</c:v>
                 </c:pt>
                 <c:pt idx="447">
-                  <c:v>19.999999999999901</c:v>
+                  <c:v>10.962056247040501</c:v>
                 </c:pt>
                 <c:pt idx="448">
-                  <c:v>20.999999999999901</c:v>
+                  <c:v>12.072275073296099</c:v>
                 </c:pt>
                 <c:pt idx="449">
-                  <c:v>21.999999999999901</c:v>
+                  <c:v>13.1824938995517</c:v>
                 </c:pt>
                 <c:pt idx="450">
-                  <c:v>22.999999999999901</c:v>
+                  <c:v>14.2927127258073</c:v>
                 </c:pt>
                 <c:pt idx="451">
-                  <c:v>23.999999999999901</c:v>
+                  <c:v>15.402931552062901</c:v>
                 </c:pt>
                 <c:pt idx="452">
-                  <c:v>24.999999999999901</c:v>
+                  <c:v>16.5131503783185</c:v>
                 </c:pt>
                 <c:pt idx="453">
-                  <c:v>25.999999999999901</c:v>
+                  <c:v>17.6233692045741</c:v>
                 </c:pt>
                 <c:pt idx="454">
-                  <c:v>26.999999999999901</c:v>
+                  <c:v>18.733588030829701</c:v>
                 </c:pt>
                 <c:pt idx="455">
-                  <c:v>27.999999999999901</c:v>
+                  <c:v>19.843806857085301</c:v>
                 </c:pt>
                 <c:pt idx="456">
-                  <c:v>28.999999999999901</c:v>
+                  <c:v>20.954025683340902</c:v>
                 </c:pt>
                 <c:pt idx="457">
-                  <c:v>29.999999999999901</c:v>
+                  <c:v>22.064244509596499</c:v>
                 </c:pt>
                 <c:pt idx="458">
-                  <c:v>30.999999999999901</c:v>
+                  <c:v>23.174463335852099</c:v>
                 </c:pt>
                 <c:pt idx="459">
-                  <c:v>31.999999999999901</c:v>
+                  <c:v>24.2846821621077</c:v>
                 </c:pt>
                 <c:pt idx="460">
-                  <c:v>32.999999999999901</c:v>
+                  <c:v>25.3949009883633</c:v>
                 </c:pt>
                 <c:pt idx="461">
-                  <c:v>33.999999999999901</c:v>
+                  <c:v>26.505119814618901</c:v>
                 </c:pt>
                 <c:pt idx="462">
-                  <c:v>34.999999999999901</c:v>
+                  <c:v>27.615338640874501</c:v>
                 </c:pt>
                 <c:pt idx="463">
-                  <c:v>35.999999999999901</c:v>
+                  <c:v>28.725557467130098</c:v>
                 </c:pt>
                 <c:pt idx="464">
-                  <c:v>36.999999999999901</c:v>
+                  <c:v>29.835776293385699</c:v>
                 </c:pt>
                 <c:pt idx="465">
-                  <c:v>37.999999999999901</c:v>
+                  <c:v>30.945995119641299</c:v>
                 </c:pt>
                 <c:pt idx="466">
-                  <c:v>38.999999999999901</c:v>
+                  <c:v>32.0562139458969</c:v>
                 </c:pt>
                 <c:pt idx="467">
-                  <c:v>39.999999999999901</c:v>
+                  <c:v>33.166432772152497</c:v>
                 </c:pt>
                 <c:pt idx="468">
-                  <c:v>40.999999999999901</c:v>
+                  <c:v>34.276651598408201</c:v>
                 </c:pt>
                 <c:pt idx="469">
-                  <c:v>41.999999999999901</c:v>
+                  <c:v>35.386870424663798</c:v>
                 </c:pt>
                 <c:pt idx="470">
-                  <c:v>42.999999999999901</c:v>
+                  <c:v>36.497089250919402</c:v>
                 </c:pt>
                 <c:pt idx="471">
-                  <c:v>43.999999999999901</c:v>
+                  <c:v>37.607308077174999</c:v>
                 </c:pt>
                 <c:pt idx="472">
-                  <c:v>44.999999999999901</c:v>
+                  <c:v>38.717526903430603</c:v>
                 </c:pt>
                 <c:pt idx="473">
-                  <c:v>45.999999999999901</c:v>
+                  <c:v>39.8277457296862</c:v>
                 </c:pt>
                 <c:pt idx="474">
-                  <c:v>46.999999999999901</c:v>
+                  <c:v>40.937964555941797</c:v>
                 </c:pt>
                 <c:pt idx="475">
-                  <c:v>47.999999999999901</c:v>
+                  <c:v>42.048183382197401</c:v>
                 </c:pt>
                 <c:pt idx="476">
-                  <c:v>48.999999999999901</c:v>
+                  <c:v>43.158402208452998</c:v>
                 </c:pt>
                 <c:pt idx="477">
-                  <c:v>49.999999999999901</c:v>
+                  <c:v>44.268621034708602</c:v>
                 </c:pt>
                 <c:pt idx="478">
-                  <c:v>50.999999999999901</c:v>
+                  <c:v>45.378839860964199</c:v>
                 </c:pt>
                 <c:pt idx="479">
-                  <c:v>51.999999999999901</c:v>
+                  <c:v>46.489058687219803</c:v>
                 </c:pt>
                 <c:pt idx="480">
-                  <c:v>52.999999999999901</c:v>
+                  <c:v>47.5992775134754</c:v>
                 </c:pt>
                 <c:pt idx="481">
-                  <c:v>53.999999999999901</c:v>
+                  <c:v>48.709496339730997</c:v>
                 </c:pt>
                 <c:pt idx="482">
-                  <c:v>54.999999999999901</c:v>
+                  <c:v>49.819715165986601</c:v>
                 </c:pt>
                 <c:pt idx="483">
-                  <c:v>55.999999999999901</c:v>
+                  <c:v>50.929933992242198</c:v>
                 </c:pt>
                 <c:pt idx="484">
-                  <c:v>56.999999999999901</c:v>
+                  <c:v>52.040152818497802</c:v>
                 </c:pt>
                 <c:pt idx="485">
-                  <c:v>57.999999999999901</c:v>
+                  <c:v>53.150371644753399</c:v>
                 </c:pt>
                 <c:pt idx="486">
-                  <c:v>58.999999999999901</c:v>
+                  <c:v>54.260590471009003</c:v>
                 </c:pt>
                 <c:pt idx="487">
-                  <c:v>59.999999999999901</c:v>
+                  <c:v>55.3708092972646</c:v>
                 </c:pt>
                 <c:pt idx="488">
-                  <c:v>60.999999999999901</c:v>
+                  <c:v>56.481028123520197</c:v>
                 </c:pt>
                 <c:pt idx="489">
-                  <c:v>61.999999999999901</c:v>
+                  <c:v>57.591246949775801</c:v>
                 </c:pt>
                 <c:pt idx="490">
-                  <c:v>62.999999999999901</c:v>
+                  <c:v>58.701465776031398</c:v>
                 </c:pt>
                 <c:pt idx="491">
-                  <c:v>63.999999999999901</c:v>
+                  <c:v>59.811684602287002</c:v>
                 </c:pt>
                 <c:pt idx="492">
-                  <c:v>64.999999999999901</c:v>
+                  <c:v>60.921903428542699</c:v>
                 </c:pt>
                 <c:pt idx="493">
-                  <c:v>65.999999999999901</c:v>
+                  <c:v>62.032122254798303</c:v>
                 </c:pt>
                 <c:pt idx="494">
-                  <c:v>66.999999999999901</c:v>
+                  <c:v>63.1423410810539</c:v>
                 </c:pt>
                 <c:pt idx="495">
-                  <c:v>67.999999999999901</c:v>
+                  <c:v>64.252559907309504</c:v>
                 </c:pt>
                 <c:pt idx="496">
-                  <c:v>68.999999999999901</c:v>
+                  <c:v>65.362778733565094</c:v>
                 </c:pt>
                 <c:pt idx="497">
-                  <c:v>69.999999999999901</c:v>
+                  <c:v>66.472997559820698</c:v>
                 </c:pt>
                 <c:pt idx="498">
-                  <c:v>70.999999999999901</c:v>
+                  <c:v>67.583216386076302</c:v>
                 </c:pt>
                 <c:pt idx="499">
-                  <c:v>71.999999999999901</c:v>
+                  <c:v>68.693435212331906</c:v>
                 </c:pt>
                 <c:pt idx="500">
-                  <c:v>72.999999999999901</c:v>
+                  <c:v>69.803654038587496</c:v>
                 </c:pt>
                 <c:pt idx="501">
-                  <c:v>73.999999999999901</c:v>
+                  <c:v>70.9138728648431</c:v>
                 </c:pt>
                 <c:pt idx="502">
-                  <c:v>74.999999999999901</c:v>
+                  <c:v>72.024091691098704</c:v>
                 </c:pt>
                 <c:pt idx="503">
-                  <c:v>75.999999999999901</c:v>
+                  <c:v>73.134310517354294</c:v>
                 </c:pt>
                 <c:pt idx="504">
-                  <c:v>76.999999999999901</c:v>
+                  <c:v>74.244529343609898</c:v>
                 </c:pt>
                 <c:pt idx="505">
-                  <c:v>76.999999999999901</c:v>
+                  <c:v>74.244529343609898</c:v>
                 </c:pt>
                 <c:pt idx="506">
-                  <c:v>76.861371031368904</c:v>
+                  <c:v>74.105900374978901</c:v>
                 </c:pt>
                 <c:pt idx="507">
-                  <c:v>76.722742062737893</c:v>
+                  <c:v>73.967271406347805</c:v>
                 </c:pt>
                 <c:pt idx="508">
-                  <c:v>76.584113094106797</c:v>
+                  <c:v>73.828642437716795</c:v>
                 </c:pt>
                 <c:pt idx="509">
-                  <c:v>76.445484125475801</c:v>
+                  <c:v>73.690013469085798</c:v>
                 </c:pt>
                 <c:pt idx="510">
-                  <c:v>76.306855156844804</c:v>
+                  <c:v>73.551384500454702</c:v>
                 </c:pt>
                 <c:pt idx="511">
-                  <c:v>76.168226188213794</c:v>
+                  <c:v>73.412755531823706</c:v>
                 </c:pt>
                 <c:pt idx="512">
-                  <c:v>76.029597219582698</c:v>
+                  <c:v>73.274126563192695</c:v>
                 </c:pt>
                 <c:pt idx="513">
-                  <c:v>75.890968250951701</c:v>
+                  <c:v>73.135497594561699</c:v>
                 </c:pt>
                 <c:pt idx="514">
-                  <c:v>75.752339282320605</c:v>
+                  <c:v>72.996868625930603</c:v>
                 </c:pt>
                 <c:pt idx="515">
-                  <c:v>75.613710313689594</c:v>
+                  <c:v>72.858239657299606</c:v>
                 </c:pt>
                 <c:pt idx="516">
-                  <c:v>75.475081345058598</c:v>
+                  <c:v>72.719610688668595</c:v>
                 </c:pt>
                 <c:pt idx="517">
-                  <c:v>75.336452376427602</c:v>
+                  <c:v>72.580981720037499</c:v>
                 </c:pt>
                 <c:pt idx="518">
-                  <c:v>75.197823407796506</c:v>
+                  <c:v>72.442352751406503</c:v>
                 </c:pt>
                 <c:pt idx="519">
-                  <c:v>75.059194439165495</c:v>
+                  <c:v>72.303723782775506</c:v>
                 </c:pt>
                 <c:pt idx="520">
-                  <c:v>74.920565470534498</c:v>
+                  <c:v>72.165094814144396</c:v>
                 </c:pt>
                 <c:pt idx="521">
-                  <c:v>74.781936501903402</c:v>
+                  <c:v>72.0264658455134</c:v>
                 </c:pt>
                 <c:pt idx="522">
-                  <c:v>74.643307533272406</c:v>
+                  <c:v>71.887836876882403</c:v>
                 </c:pt>
                 <c:pt idx="523">
-                  <c:v>74.504678564641395</c:v>
+                  <c:v>71.749207908251293</c:v>
                 </c:pt>
                 <c:pt idx="524">
-                  <c:v>74.366049596010299</c:v>
+                  <c:v>71.610578939620297</c:v>
                 </c:pt>
                 <c:pt idx="525">
-                  <c:v>74.227420627379303</c:v>
+                  <c:v>71.4719499709893</c:v>
                 </c:pt>
                 <c:pt idx="526">
-                  <c:v>74.088791658748306</c:v>
+                  <c:v>71.333321002358304</c:v>
                 </c:pt>
                 <c:pt idx="527">
-                  <c:v>73.950162690117295</c:v>
+                  <c:v>71.194692033727193</c:v>
                 </c:pt>
                 <c:pt idx="528">
-                  <c:v>73.8115337214862</c:v>
+                  <c:v>71.056063065096197</c:v>
                 </c:pt>
                 <c:pt idx="529">
-                  <c:v>73.672904752855203</c:v>
+                  <c:v>70.9174340964652</c:v>
                 </c:pt>
                 <c:pt idx="530">
-                  <c:v>73.534275784224207</c:v>
+                  <c:v>70.778805127834104</c:v>
                 </c:pt>
                 <c:pt idx="531">
-                  <c:v>73.395646815593096</c:v>
+                  <c:v>70.640176159203094</c:v>
                 </c:pt>
                 <c:pt idx="532">
-                  <c:v>73.2570178469621</c:v>
+                  <c:v>70.501547190572097</c:v>
                 </c:pt>
                 <c:pt idx="533">
-                  <c:v>73.118388878331103</c:v>
+                  <c:v>70.362918221941001</c:v>
                 </c:pt>
                 <c:pt idx="534">
-                  <c:v>72.979759909699993</c:v>
+                  <c:v>70.224289253310005</c:v>
                 </c:pt>
                 <c:pt idx="535">
-                  <c:v>72.841130941068997</c:v>
+                  <c:v>70.085660284678994</c:v>
                 </c:pt>
                 <c:pt idx="536">
-                  <c:v>72.702501972438</c:v>
+                  <c:v>69.947031316047998</c:v>
                 </c:pt>
                 <c:pt idx="537">
-                  <c:v>72.563873003806904</c:v>
+                  <c:v>69.808402347416902</c:v>
                 </c:pt>
                 <c:pt idx="538">
-                  <c:v>72.425244035175893</c:v>
+                  <c:v>69.669773378785905</c:v>
                 </c:pt>
                 <c:pt idx="539">
-                  <c:v>72.286615066544897</c:v>
+                  <c:v>69.531144410154894</c:v>
                 </c:pt>
                 <c:pt idx="540">
-                  <c:v>72.1479860979139</c:v>
+                  <c:v>69.392515441523798</c:v>
                 </c:pt>
                 <c:pt idx="541">
-                  <c:v>72.009357129282805</c:v>
+                  <c:v>69.253886472892802</c:v>
                 </c:pt>
                 <c:pt idx="542">
-                  <c:v>71.870728160651794</c:v>
+                  <c:v>69.115257504261805</c:v>
                 </c:pt>
                 <c:pt idx="543">
-                  <c:v>71.732099192020797</c:v>
+                  <c:v>68.976628535630695</c:v>
                 </c:pt>
                 <c:pt idx="544">
-                  <c:v>71.593470223389701</c:v>
+                  <c:v>68.837999566999699</c:v>
                 </c:pt>
                 <c:pt idx="545">
-                  <c:v>71.454841254758705</c:v>
+                  <c:v>68.699370598368702</c:v>
                 </c:pt>
                 <c:pt idx="546">
-                  <c:v>71.316212286127694</c:v>
+                  <c:v>68.560741629737606</c:v>
                 </c:pt>
                 <c:pt idx="547">
-                  <c:v>71.177583317496598</c:v>
+                  <c:v>68.422112661106596</c:v>
                 </c:pt>
                 <c:pt idx="548">
-                  <c:v>71.038954348865602</c:v>
+                  <c:v>68.283483692475599</c:v>
                 </c:pt>
                 <c:pt idx="549">
-                  <c:v>70.900325380234605</c:v>
+                  <c:v>68.144854723844503</c:v>
                 </c:pt>
                 <c:pt idx="550">
-                  <c:v>70.761696411603594</c:v>
+                  <c:v>68.006225755213507</c:v>
                 </c:pt>
                 <c:pt idx="551">
-                  <c:v>70.623067442972498</c:v>
+                  <c:v>67.867596786582496</c:v>
                 </c:pt>
                 <c:pt idx="552">
-                  <c:v>70.484438474341502</c:v>
+                  <c:v>67.728967817951499</c:v>
                 </c:pt>
                 <c:pt idx="553">
-                  <c:v>70.345809505710506</c:v>
+                  <c:v>67.590338849320403</c:v>
                 </c:pt>
                 <c:pt idx="554">
-                  <c:v>70.207180537079395</c:v>
+                  <c:v>67.451709880689407</c:v>
                 </c:pt>
                 <c:pt idx="555">
-                  <c:v>70.068551568448399</c:v>
+                  <c:v>67.313080912058396</c:v>
                 </c:pt>
                 <c:pt idx="556">
-                  <c:v>69.929922599817402</c:v>
+                  <c:v>67.1744519434273</c:v>
                 </c:pt>
                 <c:pt idx="557">
-                  <c:v>69.791293631186306</c:v>
+                  <c:v>67.035822974796304</c:v>
                 </c:pt>
                 <c:pt idx="558">
-                  <c:v>69.652664662555296</c:v>
+                  <c:v>66.897194006165293</c:v>
                 </c:pt>
                 <c:pt idx="559">
-                  <c:v>69.514035693924299</c:v>
+                  <c:v>66.758565037534197</c:v>
                 </c:pt>
                 <c:pt idx="560">
-                  <c:v>69.375406725293203</c:v>
+                  <c:v>66.619936068903201</c:v>
                 </c:pt>
                 <c:pt idx="561">
-                  <c:v>69.236777756662207</c:v>
+                  <c:v>66.481307100272204</c:v>
                 </c:pt>
                 <c:pt idx="562">
-                  <c:v>69.098148788031196</c:v>
+                  <c:v>66.342678131641193</c:v>
                 </c:pt>
                 <c:pt idx="563">
-                  <c:v>68.959519819400199</c:v>
+                  <c:v>66.204049163010097</c:v>
                 </c:pt>
                 <c:pt idx="564">
-                  <c:v>68.820890850769104</c:v>
+                  <c:v>66.065420194379101</c:v>
                 </c:pt>
                 <c:pt idx="565">
-                  <c:v>68.682261882138107</c:v>
+                  <c:v>65.926791225748104</c:v>
                 </c:pt>
                 <c:pt idx="566">
-                  <c:v>68.543632913507096</c:v>
+                  <c:v>65.788162257116994</c:v>
                 </c:pt>
                 <c:pt idx="567">
-                  <c:v>68.405003944876</c:v>
+                  <c:v>65.649533288485998</c:v>
                 </c:pt>
                 <c:pt idx="568">
-                  <c:v>68.266374976245004</c:v>
+                  <c:v>65.510904319855001</c:v>
                 </c:pt>
                 <c:pt idx="569">
-                  <c:v>68.127746007613993</c:v>
+                  <c:v>65.372275351223905</c:v>
                 </c:pt>
                 <c:pt idx="570">
-                  <c:v>67.989117038982897</c:v>
+                  <c:v>65.233646382592894</c:v>
                 </c:pt>
                 <c:pt idx="571">
-                  <c:v>67.850488070351901</c:v>
+                  <c:v>65.095017413961898</c:v>
                 </c:pt>
                 <c:pt idx="572">
-                  <c:v>67.711859101720904</c:v>
+                  <c:v>64.956388445330802</c:v>
                 </c:pt>
                 <c:pt idx="573">
-                  <c:v>67.573230133089893</c:v>
+                  <c:v>64.817759476699806</c:v>
                 </c:pt>
                 <c:pt idx="574">
-                  <c:v>67.434601164458797</c:v>
+                  <c:v>64.679130508068795</c:v>
                 </c:pt>
                 <c:pt idx="575">
-                  <c:v>67.295972195827801</c:v>
+                  <c:v>64.540501539437798</c:v>
                 </c:pt>
                 <c:pt idx="576">
-                  <c:v>67.157343227196804</c:v>
+                  <c:v>64.401872570806702</c:v>
                 </c:pt>
                 <c:pt idx="577">
-                  <c:v>67.018714258565694</c:v>
+                  <c:v>64.263243602175706</c:v>
                 </c:pt>
                 <c:pt idx="578">
-                  <c:v>66.880085289934698</c:v>
+                  <c:v>64.124614633544695</c:v>
                 </c:pt>
                 <c:pt idx="579">
-                  <c:v>66.741456321303701</c:v>
+                  <c:v>63.985985664913599</c:v>
                 </c:pt>
                 <c:pt idx="580">
-                  <c:v>66.602827352672605</c:v>
+                  <c:v>63.847356696282603</c:v>
                 </c:pt>
                 <c:pt idx="581">
-                  <c:v>66.464198384041595</c:v>
+                  <c:v>63.708727727651599</c:v>
                 </c:pt>
                 <c:pt idx="582">
-                  <c:v>66.325569415410598</c:v>
+                  <c:v>63.570098759020503</c:v>
                 </c:pt>
                 <c:pt idx="583">
-                  <c:v>66.186940446779502</c:v>
+                  <c:v>63.4314697903895</c:v>
                 </c:pt>
                 <c:pt idx="584">
-                  <c:v>66.048311478148506</c:v>
+                  <c:v>63.292840821758503</c:v>
                 </c:pt>
                 <c:pt idx="585">
-                  <c:v>65.909682509517495</c:v>
+                  <c:v>63.1542118531274</c:v>
                 </c:pt>
                 <c:pt idx="586">
-                  <c:v>65.771053540886498</c:v>
+                  <c:v>63.015582884496403</c:v>
                 </c:pt>
                 <c:pt idx="587">
-                  <c:v>65.632424572255402</c:v>
+                  <c:v>62.8769539158654</c:v>
                 </c:pt>
                 <c:pt idx="588">
-                  <c:v>65.493795603624406</c:v>
+                  <c:v>62.738324947234403</c:v>
                 </c:pt>
                 <c:pt idx="589">
-                  <c:v>65.355166634993395</c:v>
+                  <c:v>62.5996959786033</c:v>
                 </c:pt>
                 <c:pt idx="590">
-                  <c:v>65.216537666362299</c:v>
+                  <c:v>62.461067009972297</c:v>
                 </c:pt>
                 <c:pt idx="591">
-                  <c:v>65.077908697731303</c:v>
+                  <c:v>62.3224380413413</c:v>
                 </c:pt>
                 <c:pt idx="592">
-                  <c:v>64.939279729100306</c:v>
+                  <c:v>62.183809072710197</c:v>
                 </c:pt>
                 <c:pt idx="593">
-                  <c:v>64.800650760469196</c:v>
+                  <c:v>62.045180104079201</c:v>
                 </c:pt>
                 <c:pt idx="594">
-                  <c:v>64.6620217918382</c:v>
+                  <c:v>61.906551135448197</c:v>
                 </c:pt>
                 <c:pt idx="595">
-                  <c:v>64.523392823207203</c:v>
+                  <c:v>61.767922166817101</c:v>
                 </c:pt>
                 <c:pt idx="596">
-                  <c:v>64.384763854576093</c:v>
+                  <c:v>61.629293198186097</c:v>
                 </c:pt>
                 <c:pt idx="597">
-                  <c:v>64.246134885945096</c:v>
+                  <c:v>61.490664229555101</c:v>
                 </c:pt>
                 <c:pt idx="598">
-                  <c:v>64.1075059173141</c:v>
+                  <c:v>61.352035260924097</c:v>
                 </c:pt>
                 <c:pt idx="599">
-                  <c:v>63.968876948682997</c:v>
+                  <c:v>61.213406292293001</c:v>
                 </c:pt>
                 <c:pt idx="600">
-                  <c:v>63.830247980052</c:v>
+                  <c:v>61.074777323661998</c:v>
                 </c:pt>
                 <c:pt idx="601">
-                  <c:v>63.691619011420997</c:v>
+                  <c:v>60.936148355031001</c:v>
                 </c:pt>
                 <c:pt idx="602">
-                  <c:v>63.55299004279</c:v>
+                  <c:v>60.797519386399898</c:v>
                 </c:pt>
                 <c:pt idx="603">
-                  <c:v>63.414361074158897</c:v>
+                  <c:v>60.658890417768902</c:v>
                 </c:pt>
                 <c:pt idx="604">
-                  <c:v>63.275732105527901</c:v>
+                  <c:v>60.520261449137898</c:v>
                 </c:pt>
                 <c:pt idx="605">
-                  <c:v>63.137103136896897</c:v>
+                  <c:v>60.381632480506802</c:v>
                 </c:pt>
                 <c:pt idx="606">
-                  <c:v>63.137103136896897</c:v>
+                  <c:v>60.381632480506802</c:v>
                 </c:pt>
                 <c:pt idx="607">
-                  <c:v>64.6620217918382</c:v>
+                  <c:v>61.906551135448197</c:v>
                 </c:pt>
                 <c:pt idx="608">
-                  <c:v>66.186940446779502</c:v>
+                  <c:v>63.4314697903895</c:v>
                 </c:pt>
                 <c:pt idx="609">
-                  <c:v>67.711859101720805</c:v>
+                  <c:v>64.956388445330802</c:v>
                 </c:pt>
                 <c:pt idx="610">
-                  <c:v>69.236777756662207</c:v>
+                  <c:v>66.481307100272105</c:v>
                 </c:pt>
                 <c:pt idx="611">
-                  <c:v>70.761696411603495</c:v>
+                  <c:v>68.006225755213407</c:v>
                 </c:pt>
                 <c:pt idx="612">
-                  <c:v>72.286615066544798</c:v>
+                  <c:v>69.531144410154795</c:v>
                 </c:pt>
                 <c:pt idx="613">
-                  <c:v>73.8115337214861</c:v>
+                  <c:v>71.056063065096097</c:v>
                 </c:pt>
                 <c:pt idx="614">
-                  <c:v>75.336452376427403</c:v>
+                  <c:v>72.5809817200374</c:v>
                 </c:pt>
                 <c:pt idx="615">
-                  <c:v>76.861371031368805</c:v>
+                  <c:v>74.105900374978702</c:v>
                 </c:pt>
                 <c:pt idx="616">
-                  <c:v>77.499999999999901</c:v>
+                  <c:v>74.799638756737707</c:v>
                 </c:pt>
                 <c:pt idx="617">
-                  <c:v>78.049999999999898</c:v>
+                  <c:v>75.410259111178306</c:v>
                 </c:pt>
                 <c:pt idx="618">
-                  <c:v>78.599999999999895</c:v>
+                  <c:v>76.020879465618904</c:v>
                 </c:pt>
                 <c:pt idx="619">
-                  <c:v>79.149999999999906</c:v>
+                  <c:v>76.631499820059403</c:v>
                 </c:pt>
                 <c:pt idx="620">
-                  <c:v>79.699999999999903</c:v>
+                  <c:v>77.242120174500002</c:v>
                 </c:pt>
                 <c:pt idx="621">
-                  <c:v>80.249999999999901</c:v>
+                  <c:v>77.8527405289406</c:v>
                 </c:pt>
                 <c:pt idx="622">
-                  <c:v>80.799999999999898</c:v>
+                  <c:v>78.463360883381199</c:v>
                 </c:pt>
                 <c:pt idx="623">
-                  <c:v>81.349999999999994</c:v>
+                  <c:v>79.073981237821798</c:v>
                 </c:pt>
                 <c:pt idx="624">
-                  <c:v>81.899999999999906</c:v>
+                  <c:v>79.684601592262396</c:v>
                 </c:pt>
                 <c:pt idx="625">
-                  <c:v>82.45</c:v>
+                  <c:v>80.295221946702995</c:v>
                 </c:pt>
                 <c:pt idx="626">
-                  <c:v>83</c:v>
+                  <c:v>80.905842301143494</c:v>
                 </c:pt>
                 <c:pt idx="627">
-                  <c:v>83.55</c:v>
+                  <c:v>81.516462655584107</c:v>
                 </c:pt>
                 <c:pt idx="628">
-                  <c:v>84.1</c:v>
+                  <c:v>82.127083010024705</c:v>
                 </c:pt>
                 <c:pt idx="629">
-                  <c:v>84.649999999999906</c:v>
+                  <c:v>82.737703364465304</c:v>
                 </c:pt>
                 <c:pt idx="630">
-                  <c:v>85.2</c:v>
+                  <c:v>83.348323718905903</c:v>
                 </c:pt>
                 <c:pt idx="631">
-                  <c:v>85.75</c:v>
+                  <c:v>83.958944073346402</c:v>
                 </c:pt>
                 <c:pt idx="632">
-                  <c:v>86.3</c:v>
+                  <c:v>84.569564427787</c:v>
                 </c:pt>
                 <c:pt idx="633">
-                  <c:v>86.85</c:v>
+                  <c:v>85.180184782227599</c:v>
                 </c:pt>
                 <c:pt idx="634">
-                  <c:v>87.399999999999906</c:v>
+                  <c:v>85.790805136668197</c:v>
                 </c:pt>
                 <c:pt idx="635">
-                  <c:v>87.95</c:v>
+                  <c:v>86.401425491108796</c:v>
                 </c:pt>
                 <c:pt idx="636">
-                  <c:v>88.5</c:v>
+                  <c:v>87.012045845549395</c:v>
                 </c:pt>
                 <c:pt idx="637">
-                  <c:v>89.05</c:v>
+                  <c:v>87.622666199989894</c:v>
                 </c:pt>
                 <c:pt idx="638">
-                  <c:v>89.6</c:v>
+                  <c:v>88.233286554430506</c:v>
                 </c:pt>
                 <c:pt idx="639">
-                  <c:v>90.149999999999906</c:v>
+                  <c:v>88.843906908871105</c:v>
                 </c:pt>
                 <c:pt idx="640">
-                  <c:v>90.7</c:v>
+                  <c:v>89.454527263311704</c:v>
                 </c:pt>
                 <c:pt idx="641">
-                  <c:v>91.25</c:v>
+                  <c:v>90.065147617752203</c:v>
                 </c:pt>
                 <c:pt idx="642">
-                  <c:v>91.8</c:v>
+                  <c:v>90.675767972192801</c:v>
                 </c:pt>
                 <c:pt idx="643">
-                  <c:v>92.35</c:v>
+                  <c:v>91.2863883266334</c:v>
                 </c:pt>
                 <c:pt idx="644">
-                  <c:v>92.9</c:v>
+                  <c:v>91.897008681073999</c:v>
                 </c:pt>
                 <c:pt idx="645">
-                  <c:v>93.45</c:v>
+                  <c:v>92.507629035514597</c:v>
                 </c:pt>
                 <c:pt idx="646">
-                  <c:v>94</c:v>
+                  <c:v>93.118249389955196</c:v>
                 </c:pt>
                 <c:pt idx="647">
-                  <c:v>94.55</c:v>
+                  <c:v>93.728869744395695</c:v>
                 </c:pt>
                 <c:pt idx="648">
-                  <c:v>95.1</c:v>
+                  <c:v>94.339490098836293</c:v>
                 </c:pt>
                 <c:pt idx="649">
-                  <c:v>95.65</c:v>
+                  <c:v>94.950110453276906</c:v>
                 </c:pt>
                 <c:pt idx="650">
-                  <c:v>96.2</c:v>
+                  <c:v>95.560730807717505</c:v>
                 </c:pt>
                 <c:pt idx="651">
-                  <c:v>96.75</c:v>
+                  <c:v>96.171351162158004</c:v>
                 </c:pt>
                 <c:pt idx="652">
-                  <c:v>97.3</c:v>
+                  <c:v>96.781971516598603</c:v>
                 </c:pt>
                 <c:pt idx="653">
-                  <c:v>97.85</c:v>
+                  <c:v>97.392591871039201</c:v>
                 </c:pt>
                 <c:pt idx="654">
-                  <c:v>98.4</c:v>
+                  <c:v>98.0032122254798</c:v>
                 </c:pt>
                 <c:pt idx="655">
-                  <c:v>98.95</c:v>
+                  <c:v>98.613832579920398</c:v>
                 </c:pt>
                 <c:pt idx="656">
-                  <c:v>99.5</c:v>
+                  <c:v>99.224452934360997</c:v>
                 </c:pt>
                 <c:pt idx="657">
-                  <c:v>100.05</c:v>
+                  <c:v>99.835073288801496</c:v>
                 </c:pt>
                 <c:pt idx="658">
-                  <c:v>100.6</c:v>
+                  <c:v>100.445693643242</c:v>
                 </c:pt>
                 <c:pt idx="659">
-                  <c:v>101.15</c:v>
+                  <c:v>101.056313997682</c:v>
                 </c:pt>
                 <c:pt idx="660">
-                  <c:v>101.7</c:v>
+                  <c:v>101.66693435212299</c:v>
                 </c:pt>
                 <c:pt idx="661">
                   <c:v>102.1</c:v>
@@ -5022,7 +5019,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9853-4F70-97A7-9CCF10517CD2}"/>
+              <c16:uniqueId val="{00000000-B510-45A7-8D85-7546F70E09D6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5034,11 +5031,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="594388288"/>
-        <c:axId val="784962032"/>
+        <c:axId val="591734568"/>
+        <c:axId val="591733912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="594388288"/>
+        <c:axId val="591734568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5095,12 +5092,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="784962032"/>
+        <c:crossAx val="591733912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="784962032"/>
+        <c:axId val="591733912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5157,7 +5154,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="594388288"/>
+        <c:crossAx val="591734568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5773,23 +5770,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>429304</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>50346</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>148317</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>136072</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="グラフ 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A52C1485-68F8-C52E-09D5-5E4888B184EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D6BF2BD-B502-D3FF-C192-7F4F8F902AAD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6109,15 +6106,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B708"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
@@ -7756,7 +7749,7 @@
         <v>-97.5</v>
       </c>
       <c r="B205">
-        <v>-87.000000000000099</v>
+        <v>-88.534275784224405</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.4">
@@ -7764,7 +7757,7 @@
         <v>-95</v>
       </c>
       <c r="B206">
-        <v>-82.000000000000099</v>
+        <v>-85.068551568448697</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.4">
@@ -7772,7 +7765,7 @@
         <v>-92.5</v>
       </c>
       <c r="B207">
-        <v>-77.000000000000099</v>
+        <v>-81.602827352672904</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.4">
@@ -7780,7 +7773,7 @@
         <v>-90</v>
       </c>
       <c r="B208">
-        <v>-72.000000000000099</v>
+        <v>-78.137103136897196</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.4">
@@ -7788,7 +7781,7 @@
         <v>-87.5</v>
       </c>
       <c r="B209">
-        <v>-67.000000000000099</v>
+        <v>-74.671378921121402</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.4">
@@ -7796,7 +7789,7 @@
         <v>-85</v>
       </c>
       <c r="B210">
-        <v>-62.000000000000099</v>
+        <v>-71.205654705345694</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.4">
@@ -7804,7 +7797,7 @@
         <v>-82.5</v>
       </c>
       <c r="B211">
-        <v>-57.000000000000099</v>
+        <v>-67.73993048957</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.4">
@@ -7812,7 +7805,7 @@
         <v>-80</v>
       </c>
       <c r="B212">
-        <v>-52.000000000000099</v>
+        <v>-64.274206273794206</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.4">
@@ -7820,7 +7813,7 @@
         <v>-77.5</v>
       </c>
       <c r="B213">
-        <v>-47.000000000000099</v>
+        <v>-60.808482058018498</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.4">
@@ -7828,7 +7821,7 @@
         <v>-75</v>
       </c>
       <c r="B214">
-        <v>-42.000000000000099</v>
+        <v>-57.342757842242797</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.4">
@@ -7836,7 +7829,7 @@
         <v>-72.5</v>
       </c>
       <c r="B215">
-        <v>-37.000000000000099</v>
+        <v>-53.877033626466996</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.4">
@@ -7844,7 +7837,7 @@
         <v>-70</v>
       </c>
       <c r="B216">
-        <v>-32.000000000000099</v>
+        <v>-50.411309410691302</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.4">
@@ -7852,7 +7845,7 @@
         <v>-67.5</v>
       </c>
       <c r="B217">
-        <v>-27.000000000000099</v>
+        <v>-46.945585194915601</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.4">
@@ -7860,7 +7853,7 @@
         <v>-65</v>
       </c>
       <c r="B218">
-        <v>-22.000000000000099</v>
+        <v>-43.4798609791399</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.4">
@@ -7868,7 +7861,7 @@
         <v>-62.5</v>
       </c>
       <c r="B219">
-        <v>-17.000000000000099</v>
+        <v>-40.0141367633641</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.4">
@@ -7876,7 +7869,7 @@
         <v>-60</v>
       </c>
       <c r="B220">
-        <v>-12.000000000000099</v>
+        <v>-36.548412547588399</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.4">
@@ -7884,7 +7877,7 @@
         <v>-57.5</v>
       </c>
       <c r="B221">
-        <v>-7.0000000000001696</v>
+        <v>-33.082688331812697</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.4">
@@ -7892,7 +7885,7 @@
         <v>-55</v>
       </c>
       <c r="B222">
-        <v>-2.0000000000001701</v>
+        <v>-29.6169641160369</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.4">
@@ -7900,7 +7893,7 @@
         <v>-52.5</v>
       </c>
       <c r="B223">
-        <v>0.896103896103845</v>
+        <v>-26.151239900261199</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.4">
@@ -7908,7 +7901,7 @@
         <v>-50</v>
       </c>
       <c r="B224">
-        <v>2.3896103896103398</v>
+        <v>-22.685515684485502</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.4">
@@ -7916,7 +7909,7 @@
         <v>-47.5</v>
       </c>
       <c r="B225">
-        <v>3.8831168831168301</v>
+        <v>-19.219791468709701</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.4">
@@ -7924,7 +7917,7 @@
         <v>-45</v>
       </c>
       <c r="B226">
-        <v>5.3766233766233196</v>
+        <v>-15.754067252934</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.4">
@@ -7932,7 +7925,7 @@
         <v>-42.5</v>
       </c>
       <c r="B227">
-        <v>6.8701298701298201</v>
+        <v>-12.288343037158301</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.4">
@@ -7940,7 +7933,7 @@
         <v>-40</v>
       </c>
       <c r="B228">
-        <v>8.36363636363631</v>
+        <v>-8.82261882138258</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.4">
@@ -7948,7 +7941,7 @@
         <v>-37.5</v>
       </c>
       <c r="B229">
-        <v>9.8571428571428097</v>
+        <v>-5.3568946056068496</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.4">
@@ -7956,7 +7949,7 @@
         <v>-35</v>
       </c>
       <c r="B230">
-        <v>11.3506493506493</v>
+        <v>-1.8911703898311201</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.4">
@@ -7964,7 +7957,7 @@
         <v>-32.5</v>
       </c>
       <c r="B231">
-        <v>12.8441558441558</v>
+        <v>1.0667769672166301</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.4">
@@ -7972,7 +7965,7 @@
         <v>-30</v>
       </c>
       <c r="B232">
-        <v>14.3376623376622</v>
+        <v>2.7824981565144302</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.4">
@@ -7980,7 +7973,7 @@
         <v>-27.5</v>
       </c>
       <c r="B233">
-        <v>15.8311688311687</v>
+        <v>4.4982193458122302</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.4">
@@ -7988,7 +7981,7 @@
         <v>-25</v>
       </c>
       <c r="B234">
-        <v>17.324675324675201</v>
+        <v>6.2139405351100301</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.4">
@@ -7996,7 +7989,7 @@
         <v>-22.5</v>
       </c>
       <c r="B235">
-        <v>18.818181818181699</v>
+        <v>7.92966172440783</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.4">
@@ -8004,7 +7997,7 @@
         <v>-20</v>
       </c>
       <c r="B236">
-        <v>20.311688311688201</v>
+        <v>9.6453829137056299</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.4">
@@ -8012,7 +8005,7 @@
         <v>-17.5</v>
       </c>
       <c r="B237">
-        <v>21.805194805194699</v>
+        <v>11.361104103003401</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.4">
@@ -8020,7 +8013,7 @@
         <v>-15</v>
       </c>
       <c r="B238">
-        <v>23.2987012987012</v>
+        <v>13.0768252923012</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.4">
@@ -8028,7 +8021,7 @@
         <v>-12.5</v>
       </c>
       <c r="B239">
-        <v>24.792207792207702</v>
+        <v>14.792546481599</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.4">
@@ -8036,7 +8029,7 @@
         <v>-10</v>
       </c>
       <c r="B240">
-        <v>26.285714285714199</v>
+        <v>16.508267670896799</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.4">
@@ -8044,7 +8037,7 @@
         <v>-7.5</v>
       </c>
       <c r="B241">
-        <v>27.779220779220701</v>
+        <v>18.223988860194599</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.4">
@@ -8052,7 +8045,7 @@
         <v>-5</v>
       </c>
       <c r="B242">
-        <v>29.272727272727199</v>
+        <v>19.939710049492401</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.4">
@@ -8060,7 +8053,7 @@
         <v>-2.5</v>
       </c>
       <c r="B243">
-        <v>30.7662337662337</v>
+        <v>21.6554312387902</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.4">
@@ -8068,7 +8061,7 @@
         <v>0</v>
       </c>
       <c r="B244">
-        <v>32.259740259740198</v>
+        <v>23.371152428087999</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.4">
@@ -8076,7 +8069,7 @@
         <v>2.5</v>
       </c>
       <c r="B245">
-        <v>33.7532467532467</v>
+        <v>25.086873617385798</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.4">
@@ -8084,7 +8077,7 @@
         <v>5</v>
       </c>
       <c r="B246">
-        <v>35.246753246753201</v>
+        <v>26.802594806683601</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.4">
@@ -8092,7 +8085,7 @@
         <v>7.5</v>
       </c>
       <c r="B247">
-        <v>36.740259740259702</v>
+        <v>28.5183159959814</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.4">
@@ -8100,7 +8093,7 @@
         <v>10</v>
       </c>
       <c r="B248">
-        <v>38.233766233766197</v>
+        <v>30.234037185279199</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.4">
@@ -8108,7 +8101,7 @@
         <v>12.5</v>
       </c>
       <c r="B249">
-        <v>39.727272727272698</v>
+        <v>31.949758374577002</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.4">
@@ -8116,7 +8109,7 @@
         <v>15</v>
       </c>
       <c r="B250">
-        <v>41.2207792207791</v>
+        <v>33.665479563874797</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.4">
@@ -8124,7 +8117,7 @@
         <v>17.5</v>
       </c>
       <c r="B251">
-        <v>42.714285714285602</v>
+        <v>35.3812007531726</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.4">
@@ -8132,7 +8125,7 @@
         <v>20</v>
       </c>
       <c r="B252">
-        <v>44.207792207792103</v>
+        <v>37.096921942470402</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.4">
@@ -8140,7 +8133,7 @@
         <v>22.5</v>
       </c>
       <c r="B253">
-        <v>45.701298701298597</v>
+        <v>38.812643131768198</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.4">
@@ -8148,7 +8141,7 @@
         <v>25</v>
       </c>
       <c r="B254">
-        <v>47.194805194805099</v>
+        <v>40.528364321066</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.4">
@@ -8156,7 +8149,7 @@
         <v>27.5</v>
       </c>
       <c r="B255">
-        <v>48.6883116883116</v>
+        <v>42.244085510363803</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.4">
@@ -8164,7 +8157,7 @@
         <v>30</v>
       </c>
       <c r="B256">
-        <v>50.181818181818102</v>
+        <v>43.959806699661598</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.4">
@@ -8172,7 +8165,7 @@
         <v>32.5</v>
       </c>
       <c r="B257">
-        <v>51.675324675324603</v>
+        <v>45.675527888959401</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.4">
@@ -8180,7 +8173,7 @@
         <v>35</v>
       </c>
       <c r="B258">
-        <v>53.168831168831098</v>
+        <v>47.391249078257196</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.4">
@@ -8188,7 +8181,7 @@
         <v>37.5</v>
       </c>
       <c r="B259">
-        <v>54.662337662337599</v>
+        <v>49.106970267554999</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.4">
@@ -8196,7 +8189,7 @@
         <v>40</v>
       </c>
       <c r="B260">
-        <v>56.1558441558441</v>
+        <v>50.822691456852802</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.4">
@@ -8204,7 +8197,7 @@
         <v>42.5</v>
       </c>
       <c r="B261">
-        <v>57.649350649350602</v>
+        <v>52.538412646150597</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.4">
@@ -8212,7 +8205,7 @@
         <v>45</v>
       </c>
       <c r="B262">
-        <v>59.142857142857103</v>
+        <v>54.2541338354484</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.4">
@@ -8220,7 +8213,7 @@
         <v>47.5</v>
       </c>
       <c r="B263">
-        <v>60.636363636363598</v>
+        <v>55.969855024746202</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.4">
@@ -8228,7 +8221,7 @@
         <v>50</v>
       </c>
       <c r="B264">
-        <v>62.129870129870099</v>
+        <v>57.685576214043998</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.4">
@@ -8236,7 +8229,7 @@
         <v>52.5</v>
       </c>
       <c r="B265">
-        <v>63.6233766233766</v>
+        <v>59.4012974033418</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.4">
@@ -8244,7 +8237,7 @@
         <v>55</v>
       </c>
       <c r="B266">
-        <v>65.116883116883102</v>
+        <v>61.117018592639603</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.4">
@@ -8252,7 +8245,7 @@
         <v>57.5</v>
       </c>
       <c r="B267">
-        <v>66.610389610389603</v>
+        <v>62.832739781937399</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.4">
@@ -8260,7 +8253,7 @@
         <v>60</v>
       </c>
       <c r="B268">
-        <v>68.103896103896005</v>
+        <v>64.548460971235201</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.4">
@@ -8268,7 +8261,7 @@
         <v>62.5</v>
       </c>
       <c r="B269">
-        <v>69.597402597402507</v>
+        <v>66.264182160532997</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.4">
@@ -8276,7 +8269,7 @@
         <v>65</v>
       </c>
       <c r="B270">
-        <v>71.090909090908994</v>
+        <v>67.979903349830806</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.4">
@@ -8284,7 +8277,7 @@
         <v>67.5</v>
       </c>
       <c r="B271">
-        <v>72.584415584415495</v>
+        <v>69.695624539128602</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.4">
@@ -8292,7 +8285,7 @@
         <v>70</v>
       </c>
       <c r="B272">
-        <v>74.077922077921997</v>
+        <v>71.411345728426397</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.4">
@@ -8300,7 +8293,7 @@
         <v>72.5</v>
       </c>
       <c r="B273">
-        <v>75.571428571428498</v>
+        <v>73.127066917724093</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.4">
@@ -8308,7 +8301,7 @@
         <v>75</v>
       </c>
       <c r="B274">
-        <v>77.064935064935</v>
+        <v>74.842788107021903</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.4">
@@ -8316,7 +8309,7 @@
         <v>77.5</v>
       </c>
       <c r="B275">
-        <v>78.558441558441501</v>
+        <v>76.558509296319698</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.4">
@@ -8324,7 +8317,7 @@
         <v>80</v>
       </c>
       <c r="B276">
-        <v>80.051948051948003</v>
+        <v>78.274230485617494</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.4">
@@ -8332,7 +8325,7 @@
         <v>82.5</v>
       </c>
       <c r="B277">
-        <v>81.545454545454504</v>
+        <v>79.989951674915304</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.4">
@@ -8340,7 +8333,7 @@
         <v>85</v>
       </c>
       <c r="B278">
-        <v>83.038961038961006</v>
+        <v>81.705672864213099</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.4">
@@ -8348,7 +8341,7 @@
         <v>87.5</v>
       </c>
       <c r="B279">
-        <v>84.532467532467507</v>
+        <v>83.421394053510994</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.4">
@@ -8356,7 +8349,7 @@
         <v>90</v>
       </c>
       <c r="B280">
-        <v>86.025974025973994</v>
+        <v>85.137115242808704</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.4">
@@ -8364,7 +8357,7 @@
         <v>92.5</v>
       </c>
       <c r="B281">
-        <v>87.519480519480496</v>
+        <v>86.8528364321065</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.4">
@@ -8372,7 +8365,7 @@
         <v>95</v>
       </c>
       <c r="B282">
-        <v>89.012987012986997</v>
+        <v>88.568557621404395</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.4">
@@ -8380,7 +8373,7 @@
         <v>97.5</v>
       </c>
       <c r="B283">
-        <v>90.506493506493499</v>
+        <v>90.284278810702205</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.4">
@@ -9372,7 +9365,7 @@
         <v>-98</v>
       </c>
       <c r="B407">
-        <v>-88.000000000000099</v>
+        <v>-89.227420627379502</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.4">
@@ -9380,7 +9373,7 @@
         <v>-96</v>
       </c>
       <c r="B408">
-        <v>-84.000000000000099</v>
+        <v>-86.454841254759003</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.4">
@@ -9388,7 +9381,7 @@
         <v>-94</v>
       </c>
       <c r="B409">
-        <v>-80.000000000000099</v>
+        <v>-83.682261882138405</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.4">
@@ -9396,7 +9389,7 @@
         <v>-92</v>
       </c>
       <c r="B410">
-        <v>-76.000000000000099</v>
+        <v>-80.909682509517793</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.4">
@@ -9404,7 +9397,7 @@
         <v>-90</v>
       </c>
       <c r="B411">
-        <v>-72.000000000000099</v>
+        <v>-78.137103136897196</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.4">
@@ -9412,7 +9405,7 @@
         <v>-88</v>
       </c>
       <c r="B412">
-        <v>-68.000000000000099</v>
+        <v>-75.364523764276598</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.4">
@@ -9420,7 +9413,7 @@
         <v>-86</v>
       </c>
       <c r="B413">
-        <v>-64.000000000000099</v>
+        <v>-72.591944391656</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.4">
@@ -9428,7 +9421,7 @@
         <v>-84</v>
       </c>
       <c r="B414">
-        <v>-60.000000000000099</v>
+        <v>-69.819365019035502</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.4">
@@ -9436,7 +9429,7 @@
         <v>-82</v>
       </c>
       <c r="B415">
-        <v>-56.000000000000099</v>
+        <v>-67.046785646414904</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.4">
@@ -9444,7 +9437,7 @@
         <v>-80</v>
       </c>
       <c r="B416">
-        <v>-52.000000000000099</v>
+        <v>-64.274206273794306</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.4">
@@ -9452,7 +9445,7 @@
         <v>-78</v>
       </c>
       <c r="B417">
-        <v>-48.000000000000099</v>
+        <v>-61.501626901173701</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.4">
@@ -9460,7 +9453,7 @@
         <v>-76</v>
       </c>
       <c r="B418">
-        <v>-44.000000000000099</v>
+        <v>-58.729047528553103</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.4">
@@ -9468,7 +9461,7 @@
         <v>-74</v>
       </c>
       <c r="B419">
-        <v>-40.000000000000099</v>
+        <v>-55.956468155932498</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.4">
@@ -9476,7 +9469,7 @@
         <v>-72</v>
       </c>
       <c r="B420">
-        <v>-36.000000000000099</v>
+        <v>-53.183888783312</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.4">
@@ -9484,7 +9477,7 @@
         <v>-70</v>
       </c>
       <c r="B421">
-        <v>-32.000000000000099</v>
+        <v>-50.411309410691402</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.4">
@@ -9492,7 +9485,7 @@
         <v>-68</v>
       </c>
       <c r="B422">
-        <v>-28.000000000000099</v>
+        <v>-47.638730038070797</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.4">
@@ -9500,7 +9493,7 @@
         <v>-66</v>
       </c>
       <c r="B423">
-        <v>-24.000000000000099</v>
+        <v>-44.866150665450199</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.4">
@@ -9508,7 +9501,7 @@
         <v>-64</v>
       </c>
       <c r="B424">
-        <v>-20.000000000000099</v>
+        <v>-42.093571292829601</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.4">
@@ -9516,7 +9509,7 @@
         <v>-62</v>
       </c>
       <c r="B425">
-        <v>-16.000000000000099</v>
+        <v>-39.320991920209003</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.4">
@@ -9524,7 +9517,7 @@
         <v>-60</v>
       </c>
       <c r="B426">
-        <v>-12.000000000000099</v>
+        <v>-36.548412547588498</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.4">
@@ -9532,7 +9525,7 @@
         <v>-58</v>
       </c>
       <c r="B427">
-        <v>-8.0000000000001705</v>
+        <v>-33.7758331749679</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.4">
@@ -9540,15 +9533,15 @@
         <v>-56</v>
       </c>
       <c r="B428">
-        <v>-4.0000000000001696</v>
+        <v>-31.003253802347299</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A429">
         <v>-54</v>
       </c>
-      <c r="B429" s="1">
-        <v>-1.7053025658242399E-13</v>
+      <c r="B429">
+        <v>-28.230674429726701</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.4">
@@ -9556,7 +9549,7 @@
         <v>-52</v>
       </c>
       <c r="B430">
-        <v>0.99999999999995703</v>
+        <v>-25.4580950571061</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.4">
@@ -9564,7 +9557,7 @@
         <v>-50</v>
       </c>
       <c r="B431">
-        <v>1.99999999999995</v>
+        <v>-22.685515684485502</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.4">
@@ -9572,7 +9565,7 @@
         <v>-48</v>
       </c>
       <c r="B432">
-        <v>2.9999999999999498</v>
+        <v>-19.9129363118649</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.4">
@@ -9580,7 +9573,7 @@
         <v>-46</v>
       </c>
       <c r="B433">
-        <v>3.9999999999999498</v>
+        <v>-17.140356939244398</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.4">
@@ -9588,7 +9581,7 @@
         <v>-44</v>
       </c>
       <c r="B434">
-        <v>4.9999999999999503</v>
+        <v>-14.367777566623801</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.4">
@@ -9596,7 +9589,7 @@
         <v>-42</v>
       </c>
       <c r="B435">
-        <v>5.9999999999999503</v>
+        <v>-11.595198194003199</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.4">
@@ -9604,7 +9597,7 @@
         <v>-40</v>
       </c>
       <c r="B436">
-        <v>6.9999999999999503</v>
+        <v>-8.8226188213826493</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.4">
@@ -9612,7 +9605,7 @@
         <v>-38</v>
       </c>
       <c r="B437">
-        <v>7.9999999999999503</v>
+        <v>-6.0500394487620701</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.4">
@@ -9620,7 +9613,7 @@
         <v>-36</v>
       </c>
       <c r="B438">
-        <v>8.9999999999999591</v>
+        <v>-3.2774600761414798</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.4">
@@ -9628,7 +9621,7 @@
         <v>-34</v>
       </c>
       <c r="B439">
-        <v>9.9999999999999591</v>
+        <v>-0.50488070352089998</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.4">
@@ -9636,7 +9629,7 @@
         <v>-32</v>
       </c>
       <c r="B440">
-        <v>10.999999999999901</v>
+        <v>0.97008681074008496</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.4">
@@ -9644,7 +9637,7 @@
         <v>-30</v>
       </c>
       <c r="B441">
-        <v>11.999999999999901</v>
+        <v>2.0803056369956798</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.4">
@@ -9652,7 +9645,7 @@
         <v>-28</v>
       </c>
       <c r="B442">
-        <v>12.999999999999901</v>
+        <v>3.1905244632512901</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.4">
@@ -9660,7 +9653,7 @@
         <v>-26</v>
       </c>
       <c r="B443">
-        <v>13.999999999999901</v>
+        <v>4.3007432895068902</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.4">
@@ -9668,7 +9661,7 @@
         <v>-24</v>
       </c>
       <c r="B444">
-        <v>14.999999999999901</v>
+        <v>5.4109621157624899</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.4">
@@ -9676,7 +9669,7 @@
         <v>-22</v>
       </c>
       <c r="B445">
-        <v>15.999999999999901</v>
+        <v>6.5211809420181002</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.4">
@@ -9684,7 +9677,7 @@
         <v>-20</v>
       </c>
       <c r="B446">
-        <v>16.999999999999901</v>
+        <v>7.6313997682736998</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.4">
@@ -9692,7 +9685,7 @@
         <v>-18</v>
       </c>
       <c r="B447">
-        <v>17.999999999999901</v>
+        <v>8.7416185945292995</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.4">
@@ -9700,7 +9693,7 @@
         <v>-16</v>
       </c>
       <c r="B448">
-        <v>18.999999999999901</v>
+        <v>9.8518374207849106</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.4">
@@ -9708,7 +9701,7 @@
         <v>-14</v>
       </c>
       <c r="B449">
-        <v>19.999999999999901</v>
+        <v>10.962056247040501</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.4">
@@ -9716,7 +9709,7 @@
         <v>-12</v>
       </c>
       <c r="B450">
-        <v>20.999999999999901</v>
+        <v>12.072275073296099</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.4">
@@ -9724,7 +9717,7 @@
         <v>-10</v>
       </c>
       <c r="B451">
-        <v>21.999999999999901</v>
+        <v>13.1824938995517</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.4">
@@ -9732,7 +9725,7 @@
         <v>-8</v>
       </c>
       <c r="B452">
-        <v>22.999999999999901</v>
+        <v>14.2927127258073</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.4">
@@ -9740,7 +9733,7 @@
         <v>-6</v>
       </c>
       <c r="B453">
-        <v>23.999999999999901</v>
+        <v>15.402931552062901</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.4">
@@ -9748,7 +9741,7 @@
         <v>-4</v>
       </c>
       <c r="B454">
-        <v>24.999999999999901</v>
+        <v>16.5131503783185</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.4">
@@ -9756,7 +9749,7 @@
         <v>-2</v>
       </c>
       <c r="B455">
-        <v>25.999999999999901</v>
+        <v>17.6233692045741</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.4">
@@ -9764,7 +9757,7 @@
         <v>0</v>
       </c>
       <c r="B456">
-        <v>26.999999999999901</v>
+        <v>18.733588030829701</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.4">
@@ -9772,7 +9765,7 @@
         <v>2</v>
       </c>
       <c r="B457">
-        <v>27.999999999999901</v>
+        <v>19.843806857085301</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.4">
@@ -9780,7 +9773,7 @@
         <v>4</v>
       </c>
       <c r="B458">
-        <v>28.999999999999901</v>
+        <v>20.954025683340902</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.4">
@@ -9788,7 +9781,7 @@
         <v>6</v>
       </c>
       <c r="B459">
-        <v>29.999999999999901</v>
+        <v>22.064244509596499</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.4">
@@ -9796,7 +9789,7 @@
         <v>8</v>
       </c>
       <c r="B460">
-        <v>30.999999999999901</v>
+        <v>23.174463335852099</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.4">
@@ -9804,7 +9797,7 @@
         <v>10</v>
       </c>
       <c r="B461">
-        <v>31.999999999999901</v>
+        <v>24.2846821621077</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.4">
@@ -9812,7 +9805,7 @@
         <v>12</v>
       </c>
       <c r="B462">
-        <v>32.999999999999901</v>
+        <v>25.3949009883633</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.4">
@@ -9820,7 +9813,7 @@
         <v>14</v>
       </c>
       <c r="B463">
-        <v>33.999999999999901</v>
+        <v>26.505119814618901</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.4">
@@ -9828,7 +9821,7 @@
         <v>16</v>
       </c>
       <c r="B464">
-        <v>34.999999999999901</v>
+        <v>27.615338640874501</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.4">
@@ -9836,7 +9829,7 @@
         <v>18</v>
       </c>
       <c r="B465">
-        <v>35.999999999999901</v>
+        <v>28.725557467130098</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.4">
@@ -9844,7 +9837,7 @@
         <v>20</v>
       </c>
       <c r="B466">
-        <v>36.999999999999901</v>
+        <v>29.835776293385699</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.4">
@@ -9852,7 +9845,7 @@
         <v>22</v>
       </c>
       <c r="B467">
-        <v>37.999999999999901</v>
+        <v>30.945995119641299</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.4">
@@ -9860,7 +9853,7 @@
         <v>24</v>
       </c>
       <c r="B468">
-        <v>38.999999999999901</v>
+        <v>32.0562139458969</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.4">
@@ -9868,7 +9861,7 @@
         <v>26</v>
       </c>
       <c r="B469">
-        <v>39.999999999999901</v>
+        <v>33.166432772152497</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.4">
@@ -9876,7 +9869,7 @@
         <v>28</v>
       </c>
       <c r="B470">
-        <v>40.999999999999901</v>
+        <v>34.276651598408201</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.4">
@@ -9884,7 +9877,7 @@
         <v>30</v>
       </c>
       <c r="B471">
-        <v>41.999999999999901</v>
+        <v>35.386870424663798</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.4">
@@ -9892,7 +9885,7 @@
         <v>32</v>
       </c>
       <c r="B472">
-        <v>42.999999999999901</v>
+        <v>36.497089250919402</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.4">
@@ -9900,7 +9893,7 @@
         <v>34</v>
       </c>
       <c r="B473">
-        <v>43.999999999999901</v>
+        <v>37.607308077174999</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.4">
@@ -9908,7 +9901,7 @@
         <v>36</v>
       </c>
       <c r="B474">
-        <v>44.999999999999901</v>
+        <v>38.717526903430603</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.4">
@@ -9916,7 +9909,7 @@
         <v>38</v>
       </c>
       <c r="B475">
-        <v>45.999999999999901</v>
+        <v>39.8277457296862</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.4">
@@ -9924,7 +9917,7 @@
         <v>40</v>
       </c>
       <c r="B476">
-        <v>46.999999999999901</v>
+        <v>40.937964555941797</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.4">
@@ -9932,7 +9925,7 @@
         <v>42</v>
       </c>
       <c r="B477">
-        <v>47.999999999999901</v>
+        <v>42.048183382197401</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.4">
@@ -9940,7 +9933,7 @@
         <v>44</v>
       </c>
       <c r="B478">
-        <v>48.999999999999901</v>
+        <v>43.158402208452998</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.4">
@@ -9948,7 +9941,7 @@
         <v>46</v>
       </c>
       <c r="B479">
-        <v>49.999999999999901</v>
+        <v>44.268621034708602</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.4">
@@ -9956,7 +9949,7 @@
         <v>48</v>
       </c>
       <c r="B480">
-        <v>50.999999999999901</v>
+        <v>45.378839860964199</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.4">
@@ -9964,7 +9957,7 @@
         <v>50</v>
       </c>
       <c r="B481">
-        <v>51.999999999999901</v>
+        <v>46.489058687219803</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.4">
@@ -9972,7 +9965,7 @@
         <v>52</v>
       </c>
       <c r="B482">
-        <v>52.999999999999901</v>
+        <v>47.5992775134754</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.4">
@@ -9980,7 +9973,7 @@
         <v>54</v>
       </c>
       <c r="B483">
-        <v>53.999999999999901</v>
+        <v>48.709496339730997</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.4">
@@ -9988,7 +9981,7 @@
         <v>56</v>
       </c>
       <c r="B484">
-        <v>54.999999999999901</v>
+        <v>49.819715165986601</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.4">
@@ -9996,7 +9989,7 @@
         <v>58</v>
       </c>
       <c r="B485">
-        <v>55.999999999999901</v>
+        <v>50.929933992242198</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.4">
@@ -10004,7 +9997,7 @@
         <v>60</v>
       </c>
       <c r="B486">
-        <v>56.999999999999901</v>
+        <v>52.040152818497802</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.4">
@@ -10012,7 +10005,7 @@
         <v>62</v>
       </c>
       <c r="B487">
-        <v>57.999999999999901</v>
+        <v>53.150371644753399</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.4">
@@ -10020,7 +10013,7 @@
         <v>64</v>
       </c>
       <c r="B488">
-        <v>58.999999999999901</v>
+        <v>54.260590471009003</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.4">
@@ -10028,7 +10021,7 @@
         <v>66</v>
       </c>
       <c r="B489">
-        <v>59.999999999999901</v>
+        <v>55.3708092972646</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.4">
@@ -10036,7 +10029,7 @@
         <v>68</v>
       </c>
       <c r="B490">
-        <v>60.999999999999901</v>
+        <v>56.481028123520197</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.4">
@@ -10044,7 +10037,7 @@
         <v>70</v>
       </c>
       <c r="B491">
-        <v>61.999999999999901</v>
+        <v>57.591246949775801</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.4">
@@ -10052,7 +10045,7 @@
         <v>72</v>
       </c>
       <c r="B492">
-        <v>62.999999999999901</v>
+        <v>58.701465776031398</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.4">
@@ -10060,7 +10053,7 @@
         <v>74</v>
       </c>
       <c r="B493">
-        <v>63.999999999999901</v>
+        <v>59.811684602287002</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.4">
@@ -10068,7 +10061,7 @@
         <v>76</v>
       </c>
       <c r="B494">
-        <v>64.999999999999901</v>
+        <v>60.921903428542699</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.4">
@@ -10076,7 +10069,7 @@
         <v>78</v>
       </c>
       <c r="B495">
-        <v>65.999999999999901</v>
+        <v>62.032122254798303</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.4">
@@ -10084,7 +10077,7 @@
         <v>80</v>
       </c>
       <c r="B496">
-        <v>66.999999999999901</v>
+        <v>63.1423410810539</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.4">
@@ -10092,7 +10085,7 @@
         <v>82</v>
       </c>
       <c r="B497">
-        <v>67.999999999999901</v>
+        <v>64.252559907309504</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.4">
@@ -10100,7 +10093,7 @@
         <v>84</v>
       </c>
       <c r="B498">
-        <v>68.999999999999901</v>
+        <v>65.362778733565094</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.4">
@@ -10108,7 +10101,7 @@
         <v>86</v>
       </c>
       <c r="B499">
-        <v>69.999999999999901</v>
+        <v>66.472997559820698</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.4">
@@ -10116,7 +10109,7 @@
         <v>88</v>
       </c>
       <c r="B500">
-        <v>70.999999999999901</v>
+        <v>67.583216386076302</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.4">
@@ -10124,7 +10117,7 @@
         <v>90</v>
       </c>
       <c r="B501">
-        <v>71.999999999999901</v>
+        <v>68.693435212331906</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.4">
@@ -10132,7 +10125,7 @@
         <v>92</v>
       </c>
       <c r="B502">
-        <v>72.999999999999901</v>
+        <v>69.803654038587496</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.4">
@@ -10140,7 +10133,7 @@
         <v>94</v>
       </c>
       <c r="B503">
-        <v>73.999999999999901</v>
+        <v>70.9138728648431</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.4">
@@ -10148,7 +10141,7 @@
         <v>96</v>
       </c>
       <c r="B504">
-        <v>74.999999999999901</v>
+        <v>72.024091691098704</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.4">
@@ -10156,7 +10149,7 @@
         <v>98</v>
       </c>
       <c r="B505">
-        <v>75.999999999999901</v>
+        <v>73.134310517354294</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.4">
@@ -10164,7 +10157,7 @@
         <v>100</v>
       </c>
       <c r="B506">
-        <v>76.999999999999901</v>
+        <v>74.244529343609898</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.4">
@@ -10172,7 +10165,7 @@
         <v>100</v>
       </c>
       <c r="B507">
-        <v>76.999999999999901</v>
+        <v>74.244529343609898</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.4">
@@ -10180,7 +10173,7 @@
         <v>99.9</v>
       </c>
       <c r="B508">
-        <v>76.861371031368904</v>
+        <v>74.105900374978901</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.4">
@@ -10188,7 +10181,7 @@
         <v>99.8</v>
       </c>
       <c r="B509">
-        <v>76.722742062737893</v>
+        <v>73.967271406347805</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.4">
@@ -10196,7 +10189,7 @@
         <v>99.7</v>
       </c>
       <c r="B510">
-        <v>76.584113094106797</v>
+        <v>73.828642437716795</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.4">
@@ -10204,7 +10197,7 @@
         <v>99.6</v>
       </c>
       <c r="B511">
-        <v>76.445484125475801</v>
+        <v>73.690013469085798</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.4">
@@ -10212,7 +10205,7 @@
         <v>99.5</v>
       </c>
       <c r="B512">
-        <v>76.306855156844804</v>
+        <v>73.551384500454702</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.4">
@@ -10220,7 +10213,7 @@
         <v>99.4</v>
       </c>
       <c r="B513">
-        <v>76.168226188213794</v>
+        <v>73.412755531823706</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.4">
@@ -10228,7 +10221,7 @@
         <v>99.3</v>
       </c>
       <c r="B514">
-        <v>76.029597219582698</v>
+        <v>73.274126563192695</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.4">
@@ -10236,7 +10229,7 @@
         <v>99.2</v>
       </c>
       <c r="B515">
-        <v>75.890968250951701</v>
+        <v>73.135497594561699</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.4">
@@ -10244,7 +10237,7 @@
         <v>99.1</v>
       </c>
       <c r="B516">
-        <v>75.752339282320605</v>
+        <v>72.996868625930603</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.4">
@@ -10252,7 +10245,7 @@
         <v>99</v>
       </c>
       <c r="B517">
-        <v>75.613710313689594</v>
+        <v>72.858239657299606</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.4">
@@ -10260,7 +10253,7 @@
         <v>98.9</v>
       </c>
       <c r="B518">
-        <v>75.475081345058598</v>
+        <v>72.719610688668595</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.4">
@@ -10268,7 +10261,7 @@
         <v>98.8</v>
       </c>
       <c r="B519">
-        <v>75.336452376427602</v>
+        <v>72.580981720037499</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.4">
@@ -10276,7 +10269,7 @@
         <v>98.7</v>
       </c>
       <c r="B520">
-        <v>75.197823407796506</v>
+        <v>72.442352751406503</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.4">
@@ -10284,7 +10277,7 @@
         <v>98.6</v>
       </c>
       <c r="B521">
-        <v>75.059194439165495</v>
+        <v>72.303723782775506</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.4">
@@ -10292,7 +10285,7 @@
         <v>98.5</v>
       </c>
       <c r="B522">
-        <v>74.920565470534498</v>
+        <v>72.165094814144396</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.4">
@@ -10300,7 +10293,7 @@
         <v>98.4</v>
       </c>
       <c r="B523">
-        <v>74.781936501903402</v>
+        <v>72.0264658455134</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.4">
@@ -10308,7 +10301,7 @@
         <v>98.3</v>
       </c>
       <c r="B524">
-        <v>74.643307533272406</v>
+        <v>71.887836876882403</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.4">
@@ -10316,7 +10309,7 @@
         <v>98.2</v>
       </c>
       <c r="B525">
-        <v>74.504678564641395</v>
+        <v>71.749207908251293</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.4">
@@ -10324,7 +10317,7 @@
         <v>98.1</v>
       </c>
       <c r="B526">
-        <v>74.366049596010299</v>
+        <v>71.610578939620297</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.4">
@@ -10332,7 +10325,7 @@
         <v>98</v>
       </c>
       <c r="B527">
-        <v>74.227420627379303</v>
+        <v>71.4719499709893</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.4">
@@ -10340,7 +10333,7 @@
         <v>97.9</v>
       </c>
       <c r="B528">
-        <v>74.088791658748306</v>
+        <v>71.333321002358304</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.4">
@@ -10348,7 +10341,7 @@
         <v>97.8</v>
       </c>
       <c r="B529">
-        <v>73.950162690117295</v>
+        <v>71.194692033727193</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.4">
@@ -10356,7 +10349,7 @@
         <v>97.7</v>
       </c>
       <c r="B530">
-        <v>73.8115337214862</v>
+        <v>71.056063065096197</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.4">
@@ -10364,7 +10357,7 @@
         <v>97.6</v>
       </c>
       <c r="B531">
-        <v>73.672904752855203</v>
+        <v>70.9174340964652</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.4">
@@ -10372,7 +10365,7 @@
         <v>97.5</v>
       </c>
       <c r="B532">
-        <v>73.534275784224207</v>
+        <v>70.778805127834104</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.4">
@@ -10380,7 +10373,7 @@
         <v>97.4</v>
       </c>
       <c r="B533">
-        <v>73.395646815593096</v>
+        <v>70.640176159203094</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.4">
@@ -10388,7 +10381,7 @@
         <v>97.3</v>
       </c>
       <c r="B534">
-        <v>73.2570178469621</v>
+        <v>70.501547190572097</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.4">
@@ -10396,7 +10389,7 @@
         <v>97.2</v>
       </c>
       <c r="B535">
-        <v>73.118388878331103</v>
+        <v>70.362918221941001</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.4">
@@ -10404,7 +10397,7 @@
         <v>97.1</v>
       </c>
       <c r="B536">
-        <v>72.979759909699993</v>
+        <v>70.224289253310005</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.4">
@@ -10412,7 +10405,7 @@
         <v>97</v>
       </c>
       <c r="B537">
-        <v>72.841130941068997</v>
+        <v>70.085660284678994</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.4">
@@ -10420,7 +10413,7 @@
         <v>96.9</v>
       </c>
       <c r="B538">
-        <v>72.702501972438</v>
+        <v>69.947031316047998</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.4">
@@ -10428,7 +10421,7 @@
         <v>96.8</v>
       </c>
       <c r="B539">
-        <v>72.563873003806904</v>
+        <v>69.808402347416902</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.4">
@@ -10436,7 +10429,7 @@
         <v>96.7</v>
       </c>
       <c r="B540">
-        <v>72.425244035175893</v>
+        <v>69.669773378785905</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.4">
@@ -10444,7 +10437,7 @@
         <v>96.6</v>
       </c>
       <c r="B541">
-        <v>72.286615066544897</v>
+        <v>69.531144410154894</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.4">
@@ -10452,7 +10445,7 @@
         <v>96.5</v>
       </c>
       <c r="B542">
-        <v>72.1479860979139</v>
+        <v>69.392515441523798</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.4">
@@ -10460,7 +10453,7 @@
         <v>96.4</v>
       </c>
       <c r="B543">
-        <v>72.009357129282805</v>
+        <v>69.253886472892802</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.4">
@@ -10468,7 +10461,7 @@
         <v>96.3</v>
       </c>
       <c r="B544">
-        <v>71.870728160651794</v>
+        <v>69.115257504261805</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.4">
@@ -10476,7 +10469,7 @@
         <v>96.2</v>
       </c>
       <c r="B545">
-        <v>71.732099192020797</v>
+        <v>68.976628535630695</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.4">
@@ -10484,7 +10477,7 @@
         <v>96.1</v>
       </c>
       <c r="B546">
-        <v>71.593470223389701</v>
+        <v>68.837999566999699</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.4">
@@ -10492,7 +10485,7 @@
         <v>96</v>
       </c>
       <c r="B547">
-        <v>71.454841254758705</v>
+        <v>68.699370598368702</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.4">
@@ -10500,7 +10493,7 @@
         <v>95.9</v>
       </c>
       <c r="B548">
-        <v>71.316212286127694</v>
+        <v>68.560741629737606</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.4">
@@ -10508,7 +10501,7 @@
         <v>95.8</v>
       </c>
       <c r="B549">
-        <v>71.177583317496598</v>
+        <v>68.422112661106596</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.4">
@@ -10516,7 +10509,7 @@
         <v>95.7</v>
       </c>
       <c r="B550">
-        <v>71.038954348865602</v>
+        <v>68.283483692475599</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.4">
@@ -10524,7 +10517,7 @@
         <v>95.6</v>
       </c>
       <c r="B551">
-        <v>70.900325380234605</v>
+        <v>68.144854723844503</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.4">
@@ -10532,7 +10525,7 @@
         <v>95.5</v>
       </c>
       <c r="B552">
-        <v>70.761696411603594</v>
+        <v>68.006225755213507</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.4">
@@ -10540,7 +10533,7 @@
         <v>95.4</v>
       </c>
       <c r="B553">
-        <v>70.623067442972498</v>
+        <v>67.867596786582496</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.4">
@@ -10548,7 +10541,7 @@
         <v>95.3</v>
       </c>
       <c r="B554">
-        <v>70.484438474341502</v>
+        <v>67.728967817951499</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.4">
@@ -10556,7 +10549,7 @@
         <v>95.2</v>
       </c>
       <c r="B555">
-        <v>70.345809505710506</v>
+        <v>67.590338849320403</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.4">
@@ -10564,7 +10557,7 @@
         <v>95.1</v>
       </c>
       <c r="B556">
-        <v>70.207180537079395</v>
+        <v>67.451709880689407</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.4">
@@ -10572,7 +10565,7 @@
         <v>95</v>
       </c>
       <c r="B557">
-        <v>70.068551568448399</v>
+        <v>67.313080912058396</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.4">
@@ -10580,7 +10573,7 @@
         <v>94.9</v>
       </c>
       <c r="B558">
-        <v>69.929922599817402</v>
+        <v>67.1744519434273</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.4">
@@ -10588,7 +10581,7 @@
         <v>94.8</v>
       </c>
       <c r="B559">
-        <v>69.791293631186306</v>
+        <v>67.035822974796304</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.4">
@@ -10596,7 +10589,7 @@
         <v>94.7</v>
       </c>
       <c r="B560">
-        <v>69.652664662555296</v>
+        <v>66.897194006165293</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.4">
@@ -10604,7 +10597,7 @@
         <v>94.6</v>
       </c>
       <c r="B561">
-        <v>69.514035693924299</v>
+        <v>66.758565037534197</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.4">
@@ -10612,7 +10605,7 @@
         <v>94.5</v>
       </c>
       <c r="B562">
-        <v>69.375406725293203</v>
+        <v>66.619936068903201</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.4">
@@ -10620,7 +10613,7 @@
         <v>94.4</v>
       </c>
       <c r="B563">
-        <v>69.236777756662207</v>
+        <v>66.481307100272204</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.4">
@@ -10628,7 +10621,7 @@
         <v>94.3</v>
       </c>
       <c r="B564">
-        <v>69.098148788031196</v>
+        <v>66.342678131641193</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.4">
@@ -10636,7 +10629,7 @@
         <v>94.2</v>
       </c>
       <c r="B565">
-        <v>68.959519819400199</v>
+        <v>66.204049163010097</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.4">
@@ -10644,7 +10637,7 @@
         <v>94.1</v>
       </c>
       <c r="B566">
-        <v>68.820890850769104</v>
+        <v>66.065420194379101</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.4">
@@ -10652,7 +10645,7 @@
         <v>94</v>
       </c>
       <c r="B567">
-        <v>68.682261882138107</v>
+        <v>65.926791225748104</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.4">
@@ -10660,7 +10653,7 @@
         <v>93.9</v>
       </c>
       <c r="B568">
-        <v>68.543632913507096</v>
+        <v>65.788162257116994</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.4">
@@ -10668,7 +10661,7 @@
         <v>93.8</v>
       </c>
       <c r="B569">
-        <v>68.405003944876</v>
+        <v>65.649533288485998</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.4">
@@ -10676,7 +10669,7 @@
         <v>93.7</v>
       </c>
       <c r="B570">
-        <v>68.266374976245004</v>
+        <v>65.510904319855001</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.4">
@@ -10684,7 +10677,7 @@
         <v>93.6</v>
       </c>
       <c r="B571">
-        <v>68.127746007613993</v>
+        <v>65.372275351223905</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.4">
@@ -10692,7 +10685,7 @@
         <v>93.5</v>
       </c>
       <c r="B572">
-        <v>67.989117038982897</v>
+        <v>65.233646382592894</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.4">
@@ -10700,7 +10693,7 @@
         <v>93.4</v>
       </c>
       <c r="B573">
-        <v>67.850488070351901</v>
+        <v>65.095017413961898</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.4">
@@ -10708,7 +10701,7 @@
         <v>93.3</v>
       </c>
       <c r="B574">
-        <v>67.711859101720904</v>
+        <v>64.956388445330802</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.4">
@@ -10716,7 +10709,7 @@
         <v>93.2</v>
       </c>
       <c r="B575">
-        <v>67.573230133089893</v>
+        <v>64.817759476699806</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.4">
@@ -10724,7 +10717,7 @@
         <v>93.1</v>
       </c>
       <c r="B576">
-        <v>67.434601164458797</v>
+        <v>64.679130508068795</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.4">
@@ -10732,7 +10725,7 @@
         <v>93</v>
       </c>
       <c r="B577">
-        <v>67.295972195827801</v>
+        <v>64.540501539437798</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.4">
@@ -10740,7 +10733,7 @@
         <v>92.9</v>
       </c>
       <c r="B578">
-        <v>67.157343227196804</v>
+        <v>64.401872570806702</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.4">
@@ -10748,7 +10741,7 @@
         <v>92.8</v>
       </c>
       <c r="B579">
-        <v>67.018714258565694</v>
+        <v>64.263243602175706</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.4">
@@ -10756,7 +10749,7 @@
         <v>92.7</v>
       </c>
       <c r="B580">
-        <v>66.880085289934698</v>
+        <v>64.124614633544695</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.4">
@@ -10764,7 +10757,7 @@
         <v>92.6</v>
       </c>
       <c r="B581">
-        <v>66.741456321303701</v>
+        <v>63.985985664913599</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.4">
@@ -10772,7 +10765,7 @@
         <v>92.5</v>
       </c>
       <c r="B582">
-        <v>66.602827352672605</v>
+        <v>63.847356696282603</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.4">
@@ -10780,7 +10773,7 @@
         <v>92.4</v>
       </c>
       <c r="B583">
-        <v>66.464198384041595</v>
+        <v>63.708727727651599</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.4">
@@ -10788,7 +10781,7 @@
         <v>92.3</v>
       </c>
       <c r="B584">
-        <v>66.325569415410598</v>
+        <v>63.570098759020503</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.4">
@@ -10796,7 +10789,7 @@
         <v>92.2</v>
       </c>
       <c r="B585">
-        <v>66.186940446779502</v>
+        <v>63.4314697903895</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.4">
@@ -10804,7 +10797,7 @@
         <v>92.1</v>
       </c>
       <c r="B586">
-        <v>66.048311478148506</v>
+        <v>63.292840821758503</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.4">
@@ -10812,7 +10805,7 @@
         <v>92</v>
       </c>
       <c r="B587">
-        <v>65.909682509517495</v>
+        <v>63.1542118531274</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.4">
@@ -10820,7 +10813,7 @@
         <v>91.9</v>
       </c>
       <c r="B588">
-        <v>65.771053540886498</v>
+        <v>63.015582884496403</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.4">
@@ -10828,7 +10821,7 @@
         <v>91.8</v>
       </c>
       <c r="B589">
-        <v>65.632424572255402</v>
+        <v>62.8769539158654</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.4">
@@ -10836,7 +10829,7 @@
         <v>91.7</v>
       </c>
       <c r="B590">
-        <v>65.493795603624406</v>
+        <v>62.738324947234403</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.4">
@@ -10844,7 +10837,7 @@
         <v>91.6</v>
       </c>
       <c r="B591">
-        <v>65.355166634993395</v>
+        <v>62.5996959786033</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.4">
@@ -10852,7 +10845,7 @@
         <v>91.5</v>
       </c>
       <c r="B592">
-        <v>65.216537666362299</v>
+        <v>62.461067009972297</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.4">
@@ -10860,7 +10853,7 @@
         <v>91.4</v>
       </c>
       <c r="B593">
-        <v>65.077908697731303</v>
+        <v>62.3224380413413</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.4">
@@ -10868,7 +10861,7 @@
         <v>91.3</v>
       </c>
       <c r="B594">
-        <v>64.939279729100306</v>
+        <v>62.183809072710197</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.4">
@@ -10876,7 +10869,7 @@
         <v>91.2</v>
       </c>
       <c r="B595">
-        <v>64.800650760469196</v>
+        <v>62.045180104079201</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.4">
@@ -10884,7 +10877,7 @@
         <v>91.1</v>
       </c>
       <c r="B596">
-        <v>64.6620217918382</v>
+        <v>61.906551135448197</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.4">
@@ -10892,7 +10885,7 @@
         <v>91</v>
       </c>
       <c r="B597">
-        <v>64.523392823207203</v>
+        <v>61.767922166817101</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.4">
@@ -10900,7 +10893,7 @@
         <v>90.9</v>
       </c>
       <c r="B598">
-        <v>64.384763854576093</v>
+        <v>61.629293198186097</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.4">
@@ -10908,7 +10901,7 @@
         <v>90.8</v>
       </c>
       <c r="B599">
-        <v>64.246134885945096</v>
+        <v>61.490664229555101</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.4">
@@ -10916,7 +10909,7 @@
         <v>90.7</v>
       </c>
       <c r="B600">
-        <v>64.1075059173141</v>
+        <v>61.352035260924097</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.4">
@@ -10924,7 +10917,7 @@
         <v>90.6</v>
       </c>
       <c r="B601">
-        <v>63.968876948682997</v>
+        <v>61.213406292293001</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.4">
@@ -10932,7 +10925,7 @@
         <v>90.5</v>
       </c>
       <c r="B602">
-        <v>63.830247980052</v>
+        <v>61.074777323661998</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.4">
@@ -10940,7 +10933,7 @@
         <v>90.4</v>
       </c>
       <c r="B603">
-        <v>63.691619011420997</v>
+        <v>60.936148355031001</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.4">
@@ -10948,7 +10941,7 @@
         <v>90.3</v>
       </c>
       <c r="B604">
-        <v>63.55299004279</v>
+        <v>60.797519386399898</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.4">
@@ -10956,7 +10949,7 @@
         <v>90.2</v>
       </c>
       <c r="B605">
-        <v>63.414361074158897</v>
+        <v>60.658890417768902</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.4">
@@ -10964,7 +10957,7 @@
         <v>90.1</v>
       </c>
       <c r="B606">
-        <v>63.275732105527901</v>
+        <v>60.520261449137898</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.4">
@@ -10972,7 +10965,7 @@
         <v>90</v>
       </c>
       <c r="B607">
-        <v>63.137103136896897</v>
+        <v>60.381632480506802</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.4">
@@ -10980,7 +10973,7 @@
         <v>90</v>
       </c>
       <c r="B608">
-        <v>63.137103136896897</v>
+        <v>60.381632480506802</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.4">
@@ -10988,7 +10981,7 @@
         <v>91.1</v>
       </c>
       <c r="B609">
-        <v>64.6620217918382</v>
+        <v>61.906551135448197</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.4">
@@ -10996,7 +10989,7 @@
         <v>92.2</v>
       </c>
       <c r="B610">
-        <v>66.186940446779502</v>
+        <v>63.4314697903895</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.4">
@@ -11004,7 +10997,7 @@
         <v>93.3</v>
       </c>
       <c r="B611">
-        <v>67.711859101720805</v>
+        <v>64.956388445330802</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.4">
@@ -11012,7 +11005,7 @@
         <v>94.4</v>
       </c>
       <c r="B612">
-        <v>69.236777756662207</v>
+        <v>66.481307100272105</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.4">
@@ -11020,7 +11013,7 @@
         <v>95.5</v>
       </c>
       <c r="B613">
-        <v>70.761696411603495</v>
+        <v>68.006225755213407</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.4">
@@ -11028,7 +11021,7 @@
         <v>96.6</v>
       </c>
       <c r="B614">
-        <v>72.286615066544798</v>
+        <v>69.531144410154795</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.4">
@@ -11036,7 +11029,7 @@
         <v>97.7</v>
       </c>
       <c r="B615">
-        <v>73.8115337214861</v>
+        <v>71.056063065096097</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.4">
@@ -11044,7 +11037,7 @@
         <v>98.8</v>
       </c>
       <c r="B616">
-        <v>75.336452376427403</v>
+        <v>72.5809817200374</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.4">
@@ -11052,7 +11045,7 @@
         <v>99.9</v>
       </c>
       <c r="B617">
-        <v>76.861371031368805</v>
+        <v>74.105900374978702</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.4">
@@ -11060,7 +11053,7 @@
         <v>101</v>
       </c>
       <c r="B618">
-        <v>77.499999999999901</v>
+        <v>74.799638756737707</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.4">
@@ -11068,7 +11061,7 @@
         <v>102.1</v>
       </c>
       <c r="B619">
-        <v>78.049999999999898</v>
+        <v>75.410259111178306</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.4">
@@ -11076,7 +11069,7 @@
         <v>103.2</v>
       </c>
       <c r="B620">
-        <v>78.599999999999895</v>
+        <v>76.020879465618904</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.4">
@@ -11084,7 +11077,7 @@
         <v>104.3</v>
       </c>
       <c r="B621">
-        <v>79.149999999999906</v>
+        <v>76.631499820059403</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.4">
@@ -11092,7 +11085,7 @@
         <v>105.4</v>
       </c>
       <c r="B622">
-        <v>79.699999999999903</v>
+        <v>77.242120174500002</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.4">
@@ -11100,7 +11093,7 @@
         <v>106.5</v>
       </c>
       <c r="B623">
-        <v>80.249999999999901</v>
+        <v>77.8527405289406</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.4">
@@ -11108,7 +11101,7 @@
         <v>107.6</v>
       </c>
       <c r="B624">
-        <v>80.799999999999898</v>
+        <v>78.463360883381199</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.4">
@@ -11116,7 +11109,7 @@
         <v>108.7</v>
       </c>
       <c r="B625">
-        <v>81.349999999999994</v>
+        <v>79.073981237821798</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.4">
@@ -11124,7 +11117,7 @@
         <v>109.8</v>
       </c>
       <c r="B626">
-        <v>81.899999999999906</v>
+        <v>79.684601592262396</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.4">
@@ -11132,7 +11125,7 @@
         <v>110.9</v>
       </c>
       <c r="B627">
-        <v>82.45</v>
+        <v>80.295221946702995</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.4">
@@ -11140,7 +11133,7 @@
         <v>112</v>
       </c>
       <c r="B628">
-        <v>83</v>
+        <v>80.905842301143494</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.4">
@@ -11148,7 +11141,7 @@
         <v>113.1</v>
       </c>
       <c r="B629">
-        <v>83.55</v>
+        <v>81.516462655584107</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.4">
@@ -11156,7 +11149,7 @@
         <v>114.2</v>
       </c>
       <c r="B630">
-        <v>84.1</v>
+        <v>82.127083010024705</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.4">
@@ -11164,7 +11157,7 @@
         <v>115.3</v>
       </c>
       <c r="B631">
-        <v>84.649999999999906</v>
+        <v>82.737703364465304</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.4">
@@ -11172,7 +11165,7 @@
         <v>116.4</v>
       </c>
       <c r="B632">
-        <v>85.2</v>
+        <v>83.348323718905903</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.4">
@@ -11180,7 +11173,7 @@
         <v>117.5</v>
       </c>
       <c r="B633">
-        <v>85.75</v>
+        <v>83.958944073346402</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.4">
@@ -11188,7 +11181,7 @@
         <v>118.6</v>
       </c>
       <c r="B634">
-        <v>86.3</v>
+        <v>84.569564427787</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.4">
@@ -11196,7 +11189,7 @@
         <v>119.7</v>
       </c>
       <c r="B635">
-        <v>86.85</v>
+        <v>85.180184782227599</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.4">
@@ -11204,7 +11197,7 @@
         <v>120.8</v>
       </c>
       <c r="B636">
-        <v>87.399999999999906</v>
+        <v>85.790805136668197</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.4">
@@ -11212,7 +11205,7 @@
         <v>121.9</v>
       </c>
       <c r="B637">
-        <v>87.95</v>
+        <v>86.401425491108796</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.4">
@@ -11220,7 +11213,7 @@
         <v>123</v>
       </c>
       <c r="B638">
-        <v>88.5</v>
+        <v>87.012045845549395</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.4">
@@ -11228,7 +11221,7 @@
         <v>124.1</v>
       </c>
       <c r="B639">
-        <v>89.05</v>
+        <v>87.622666199989894</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.4">
@@ -11236,7 +11229,7 @@
         <v>125.2</v>
       </c>
       <c r="B640">
-        <v>89.6</v>
+        <v>88.233286554430506</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.4">
@@ -11244,7 +11237,7 @@
         <v>126.3</v>
       </c>
       <c r="B641">
-        <v>90.149999999999906</v>
+        <v>88.843906908871105</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.4">
@@ -11252,7 +11245,7 @@
         <v>127.4</v>
       </c>
       <c r="B642">
-        <v>90.7</v>
+        <v>89.454527263311704</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.4">
@@ -11260,7 +11253,7 @@
         <v>128.5</v>
       </c>
       <c r="B643">
-        <v>91.25</v>
+        <v>90.065147617752203</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.4">
@@ -11268,7 +11261,7 @@
         <v>129.6</v>
       </c>
       <c r="B644">
-        <v>91.8</v>
+        <v>90.675767972192801</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.4">
@@ -11276,7 +11269,7 @@
         <v>130.69999999999999</v>
       </c>
       <c r="B645">
-        <v>92.35</v>
+        <v>91.2863883266334</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.4">
@@ -11284,7 +11277,7 @@
         <v>131.80000000000001</v>
       </c>
       <c r="B646">
-        <v>92.9</v>
+        <v>91.897008681073999</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.4">
@@ -11292,7 +11285,7 @@
         <v>132.9</v>
       </c>
       <c r="B647">
-        <v>93.45</v>
+        <v>92.507629035514597</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.4">
@@ -11300,7 +11293,7 @@
         <v>134</v>
       </c>
       <c r="B648">
-        <v>94</v>
+        <v>93.118249389955196</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.4">
@@ -11308,7 +11301,7 @@
         <v>135.1</v>
       </c>
       <c r="B649">
-        <v>94.55</v>
+        <v>93.728869744395695</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.4">
@@ -11316,7 +11309,7 @@
         <v>136.19999999999999</v>
       </c>
       <c r="B650">
-        <v>95.1</v>
+        <v>94.339490098836293</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.4">
@@ -11324,7 +11317,7 @@
         <v>137.30000000000001</v>
       </c>
       <c r="B651">
-        <v>95.65</v>
+        <v>94.950110453276906</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.4">
@@ -11332,7 +11325,7 @@
         <v>138.4</v>
       </c>
       <c r="B652">
-        <v>96.2</v>
+        <v>95.560730807717505</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.4">
@@ -11340,7 +11333,7 @@
         <v>139.5</v>
       </c>
       <c r="B653">
-        <v>96.75</v>
+        <v>96.171351162158004</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.4">
@@ -11348,7 +11341,7 @@
         <v>140.6</v>
       </c>
       <c r="B654">
-        <v>97.3</v>
+        <v>96.781971516598603</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.4">
@@ -11356,7 +11349,7 @@
         <v>141.69999999999999</v>
       </c>
       <c r="B655">
-        <v>97.85</v>
+        <v>97.392591871039201</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.4">
@@ -11364,7 +11357,7 @@
         <v>142.80000000000001</v>
       </c>
       <c r="B656">
-        <v>98.4</v>
+        <v>98.0032122254798</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.4">
@@ -11372,7 +11365,7 @@
         <v>143.9</v>
       </c>
       <c r="B657">
-        <v>98.95</v>
+        <v>98.613832579920398</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.4">
@@ -11380,7 +11373,7 @@
         <v>145</v>
       </c>
       <c r="B658">
-        <v>99.5</v>
+        <v>99.224452934360997</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.4">
@@ -11388,7 +11381,7 @@
         <v>146.1</v>
       </c>
       <c r="B659">
-        <v>100.05</v>
+        <v>99.835073288801496</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.4">
@@ -11396,7 +11389,7 @@
         <v>147.19999999999999</v>
       </c>
       <c r="B660">
-        <v>100.6</v>
+        <v>100.445693643242</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.4">
@@ -11404,7 +11397,7 @@
         <v>148.30000000000001</v>
       </c>
       <c r="B661">
-        <v>101.15</v>
+        <v>101.056313997682</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.4">
@@ -11412,7 +11405,7 @@
         <v>149.4</v>
       </c>
       <c r="B662">
-        <v>101.7</v>
+        <v>101.66693435212299</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.4">
